--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25786BFE-4DDF-44D0-936A-89C4653BF7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A47036-75F3-4562-BB26-F5288A7D34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">             A partir de noviembre de 2021 se toma como base el tipo de cambio (FIX).</t>
   </si>
   <si>
-    <t xml:space="preserve">            Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
+    <t>Fuente: BANXICO. Sistema de Información Económica (SIE). Tipos de cambio a otras divisas. En: www.banxico.org.mx.</t>
   </si>
   <si>
-    <t>Fuente: BANXICO. Sistema de Información Económica (SIE). Tipos de cambio a otras divisas. En: www.banxico.org.mx.</t>
+    <t xml:space="preserve">             Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
 </sst>
 </file>
@@ -82,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,12 +135,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -134,11 +154,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -146,154 +231,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -304,19 +283,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:F81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name=" CETES 28 días" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name=" TIIE a 28 días" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0B969ED9-B9B4-4DA8-BFF4-BD018051E923}" name="Peso /dólar" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F90C46B7-9926-4854-ACB9-19B0088E2497}" name="Peso /euro" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,17 +511,17 @@
   <dimension ref="B2:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
@@ -594,20 +560,20 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -615,54 +581,50 @@
       <c r="B5" s="5">
         <v>45413</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>10.99</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>11.24</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>17.017700000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>18.476970000000001</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>45383</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>10.97</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>11.25</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>17.095800000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="13">
         <v>18.275410000000001</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>45352</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>11.02</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <v>11.44</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>16.532299999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>17.881340000000002</v>
       </c>
     </row>
@@ -670,16 +632,16 @@
       <c r="B8" s="6">
         <v>45323</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>11.05</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <v>11.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>17.063300000000002</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <v>18.465900000000001</v>
       </c>
     </row>
@@ -687,16 +649,16 @@
       <c r="B9" s="5">
         <v>45292</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>11.29</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>11.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>17.1633</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>18.64106</v>
       </c>
     </row>
@@ -704,16 +666,16 @@
       <c r="B10" s="6">
         <v>45261</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>11.21</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="11">
         <v>11.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>16.919</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <v>18.692959999999999</v>
       </c>
     </row>
@@ -721,16 +683,16 @@
       <c r="B11" s="5">
         <v>45231</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>10.89</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="8">
         <v>11.51</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>17.373000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>18.952210000000001</v>
       </c>
     </row>
@@ -738,16 +700,16 @@
       <c r="B12" s="6">
         <v>45200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11">
         <v>11.08</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="11">
         <v>11.5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <v>18.036799999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="13">
         <v>19.120809999999999</v>
       </c>
     </row>
@@ -755,16 +717,16 @@
       <c r="B13" s="5">
         <v>45170</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>11.08</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>11.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>17.412700000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>18.431339999999999</v>
       </c>
     </row>
@@ -772,16 +734,16 @@
       <c r="B14" s="6">
         <v>45139</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11">
         <v>11.16</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <v>11.5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>16.917000000000002</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="13">
         <v>18.358329999999999</v>
       </c>
     </row>
@@ -789,16 +751,16 @@
       <c r="B15" s="5">
         <v>45108</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>11.22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <v>11.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="9">
         <v>16.7303</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>18.446829999999999</v>
       </c>
     </row>
@@ -806,16 +768,16 @@
       <c r="B16" s="6">
         <v>45078</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <v>11.16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <v>11.5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>17.1358</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="13">
         <v>18.69773</v>
       </c>
     </row>
@@ -823,16 +785,16 @@
       <c r="B17" s="5">
         <v>45047</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>11.32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="8">
         <v>11.54</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="9">
         <v>17.741800000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10">
         <v>18.913650000000001</v>
       </c>
     </row>
@@ -840,16 +802,16 @@
       <c r="B18" s="6">
         <v>45017</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>11.29</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <v>11.53</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>17.997499999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="13">
         <v>19.862939999999998</v>
       </c>
     </row>
@@ -857,16 +819,16 @@
       <c r="B19" s="5">
         <v>44986</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>11.23</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="8">
         <v>11.34</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>18.041499999999999</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>19.600290000000001</v>
       </c>
     </row>
@@ -874,16 +836,16 @@
       <c r="B20" s="6">
         <v>44958</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <v>10.92</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <v>11.1</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="12">
         <v>18.344799999999999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="13">
         <v>19.455580000000001</v>
       </c>
     </row>
@@ -891,16 +853,16 @@
       <c r="B21" s="5">
         <v>44927</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>10.61</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <v>10.78</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>18.793700000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>20.409020000000002</v>
       </c>
     </row>
@@ -908,16 +870,16 @@
       <c r="B22" s="6">
         <v>44896</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="11">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="11">
         <v>10.53</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="12">
         <v>19.471499999999999</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="13">
         <v>20.769279999999998</v>
       </c>
     </row>
@@ -925,16 +887,16 @@
       <c r="B23" s="5">
         <v>44866</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <v>9.42</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="8">
         <v>10</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="9">
         <v>19.3965</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <v>19.977429999999998</v>
       </c>
     </row>
@@ -942,16 +904,16 @@
       <c r="B24" s="6">
         <v>44835</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="11">
         <v>8.93</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="11">
         <v>9.56</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="12">
         <v>19.8245</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="13">
         <v>19.603459999999998</v>
       </c>
     </row>
@@ -959,16 +921,16 @@
       <c r="B25" s="5">
         <v>44805</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="8">
         <v>8.89</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="9">
         <v>20.092500000000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="10">
         <v>19.686630000000001</v>
       </c>
     </row>
@@ -976,16 +938,16 @@
       <c r="B26" s="6">
         <v>44774</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="11">
         <v>8.25</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="11">
         <v>8.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="12">
         <v>20.0962</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="13">
         <v>20.208739999999999</v>
       </c>
     </row>
@@ -993,16 +955,16 @@
       <c r="B27" s="5">
         <v>44743</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="8">
         <v>7.76</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="9">
         <v>20.348500000000001</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="10">
         <v>20.739190000000001</v>
       </c>
     </row>
@@ -1010,16 +972,16 @@
       <c r="B28" s="6">
         <v>44713</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="11">
         <v>7.31</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="11">
         <v>7.42</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="12">
         <v>20.133500000000002</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="13">
         <v>21.047560000000001</v>
       </c>
     </row>
@@ -1027,16 +989,16 @@
       <c r="B29" s="5">
         <v>44682</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="8">
         <v>6.91</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="8">
         <v>7.01</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="9">
         <v>19.693999999999999</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>21.095230000000001</v>
       </c>
     </row>
@@ -1044,16 +1006,16 @@
       <c r="B30" s="6">
         <v>44652</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="11">
         <v>6.56</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="11">
         <v>6.73</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="12">
         <v>20.372800000000002</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="13">
         <v>21.49127</v>
       </c>
     </row>
@@ -1061,16 +1023,16 @@
       <c r="B31" s="5">
         <v>44621</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="8">
         <v>6.31</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="8">
         <v>6.33</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="9">
         <v>19.911200000000001</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>22.14424</v>
       </c>
     </row>
@@ -1078,16 +1040,16 @@
       <c r="B32" s="6">
         <v>44593</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="11">
         <v>5.87</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="11">
         <v>6.02</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="12">
         <v>20.425699999999999</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="13">
         <v>22.934999999999999</v>
       </c>
     </row>
@@ -1095,16 +1057,16 @@
       <c r="B33" s="5">
         <v>44562</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="8">
         <v>5.53</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="8">
         <v>5.72</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="9">
         <v>20.635200000000001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>23.131029999999999</v>
       </c>
     </row>
@@ -1112,16 +1074,16 @@
       <c r="B34" s="6">
         <v>44531</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="11">
         <v>5.29</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="11">
         <v>5.44</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="12">
         <v>20.467199999999998</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="13">
         <v>23.276319999999998</v>
       </c>
     </row>
@@ -1129,16 +1091,16 @@
       <c r="B35" s="5">
         <v>44501</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="8">
         <v>5.05</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="8">
         <v>5.13</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="9">
         <v>21.4453</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="10">
         <v>24.151700000000002</v>
       </c>
     </row>
@@ -1146,16 +1108,16 @@
       <c r="B36" s="6">
         <v>44470</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="11">
         <v>4.84</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="11">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="12">
         <v>20.529699999999998</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="13">
         <v>23.757999999999999</v>
       </c>
     </row>
@@ -1163,16 +1125,16 @@
       <c r="B37" s="5">
         <v>44440</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="8">
         <v>4.55</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="8">
         <v>4.75</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="9">
         <v>20.5623</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="10">
         <v>23.828620000000001</v>
       </c>
     </row>
@@ -1180,16 +1142,16 @@
       <c r="B38" s="6">
         <v>44409</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="11">
         <v>4.46</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="12">
         <v>20.060500000000001</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="13">
         <v>23.680420000000002</v>
       </c>
     </row>
@@ -1197,16 +1159,16 @@
       <c r="B39" s="5">
         <v>44378</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="8">
         <v>4.32</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="8">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="9">
         <v>19.845500000000001</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="10">
         <v>23.529820000000001</v>
       </c>
     </row>
@@ -1214,16 +1176,16 @@
       <c r="B40" s="6">
         <v>44348</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="11">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="11">
         <v>4.32</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="12">
         <v>19.906199999999998</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="13">
         <v>23.60079</v>
       </c>
     </row>
@@ -1231,16 +1193,16 @@
       <c r="B41" s="5">
         <v>44317</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="8">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="8">
         <v>4.29</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="9">
         <v>19.921299999999999</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="10">
         <v>24.352789999999999</v>
       </c>
     </row>
@@ -1248,16 +1210,16 @@
       <c r="B42" s="6">
         <v>44287</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="11">
         <v>4.07</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="11">
         <v>4.28</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="12">
         <v>20.182200000000002</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="13">
         <v>24.300380000000001</v>
       </c>
     </row>
@@ -1265,16 +1227,16 @@
       <c r="B43" s="5">
         <v>44256</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="8">
         <v>4.05</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="8">
         <v>4.28</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="9">
         <v>20.440000000000001</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="10">
         <v>24.026199999999999</v>
       </c>
     </row>
@@ -1282,16 +1244,16 @@
       <c r="B44" s="6">
         <v>44228</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="11">
         <v>4.12</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="11">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="12">
         <v>20.939</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="13">
         <v>25.41262</v>
       </c>
     </row>
@@ -1299,16 +1261,16 @@
       <c r="B45" s="5">
         <v>44197</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="8">
         <v>4.22</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="8">
         <v>4.47</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="9">
         <v>20.224799999999998</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="10">
         <v>24.56504</v>
       </c>
     </row>
@@ -1316,16 +1278,16 @@
       <c r="B46" s="6">
         <v>44166</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="11">
         <v>4.49</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="12">
         <v>19.9087</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="13">
         <v>24.356300000000001</v>
       </c>
     </row>
@@ -1333,16 +1295,16 @@
       <c r="B47" s="5">
         <v>44136</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="8">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="8">
         <v>4.5</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="9">
         <v>20.139800000000001</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="10">
         <v>24.094249999999999</v>
       </c>
     </row>
@@ -1350,16 +1312,16 @@
       <c r="B48" s="6">
         <v>44105</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="11">
         <v>4.2</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="11">
         <v>4.53</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="12">
         <v>21.250800000000002</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="13">
         <v>24.81775</v>
       </c>
     </row>
@@ -1367,16 +1329,16 @@
       <c r="B49" s="5">
         <v>44075</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="8">
         <v>4.38</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="8">
         <v>4.72</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="9">
         <v>22.143799999999999</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="10">
         <v>25.969139999999999</v>
       </c>
     </row>
@@ -1384,16 +1346,16 @@
       <c r="B50" s="6">
         <v>44044</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="11">
         <v>4.49</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="11">
         <v>4.97</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="12">
         <v>21.888000000000002</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="13">
         <v>26.17914</v>
       </c>
     </row>
@@ -1401,16 +1363,16 @@
       <c r="B51" s="5">
         <v>44013</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="8">
         <v>4.82</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="8">
         <v>5.23</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="9">
         <v>22.2012</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="10">
         <v>26.26069</v>
       </c>
     </row>
@@ -1418,16 +1380,16 @@
       <c r="B52" s="6">
         <v>43983</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="11">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="11">
         <v>5.65</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="12">
         <v>23.089300000000001</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="13">
         <v>25.925820000000002</v>
       </c>
     </row>
@@ -1435,16 +1397,16 @@
       <c r="B53" s="5">
         <v>43952</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="8">
         <v>5.47</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="8">
         <v>6</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="9">
         <v>22.177800000000001</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="10">
         <v>24.67502</v>
       </c>
     </row>
@@ -1452,16 +1414,16 @@
       <c r="B54" s="6">
         <v>43922</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="11">
         <v>6.09</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="11">
         <v>6.54</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="12">
         <v>23.9283</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="13">
         <v>26.1967</v>
       </c>
     </row>
@@ -1469,16 +1431,16 @@
       <c r="B55" s="5">
         <v>43891</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="8">
         <v>6.81</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="8">
         <v>7.1</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="9">
         <v>23.4847</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="10">
         <v>25.767410000000002</v>
       </c>
     </row>
@@ -1486,16 +1448,16 @@
       <c r="B56" s="6">
         <v>43862</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="11">
         <v>6.96</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="11">
         <v>7.39</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="12">
         <v>19.776</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="13">
         <v>21.720970000000001</v>
       </c>
     </row>
@@ -1503,16 +1465,16 @@
       <c r="B57" s="5">
         <v>43831</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="8">
         <v>7.12</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="8">
         <v>7.53</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="9">
         <v>18.908200000000001</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="10">
         <v>20.9465</v>
       </c>
     </row>
@@ -1520,16 +1482,16 @@
       <c r="B58" s="6">
         <v>43800</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="11">
         <v>7.12</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="11">
         <v>7.7</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="12">
         <v>18.8642</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="13">
         <v>21.175059999999998</v>
       </c>
     </row>
@@ -1537,16 +1499,16 @@
       <c r="B59" s="5">
         <v>43770</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="8">
         <v>7.47</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="8">
         <v>7.87</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="9">
         <v>19.5352</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="10">
         <v>21.538530000000002</v>
       </c>
     </row>
@@ -1554,16 +1516,16 @@
       <c r="B60" s="6">
         <v>43739</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="11">
         <v>7.66</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="11">
         <v>8</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="12">
         <v>19.194800000000001</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="13">
         <v>21.383970000000001</v>
       </c>
     </row>
@@ -1571,16 +1533,16 @@
       <c r="B61" s="5">
         <v>43709</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="8">
         <v>7.72</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="9">
         <v>19.734500000000001</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="10">
         <v>21.515540000000001</v>
       </c>
     </row>
@@ -1588,16 +1550,16 @@
       <c r="B62" s="6">
         <v>43678</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="11">
         <v>8.01</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="11">
         <v>8.3699999999999992</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="12">
         <v>20.069600000000001</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="13">
         <v>22.107669999999999</v>
       </c>
     </row>
@@ -1605,16 +1567,16 @@
       <c r="B63" s="5">
         <v>43647</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="8">
         <v>8.14</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="8">
         <v>8.48</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="9">
         <v>18.992899999999999</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="10">
         <v>21.148589999999999</v>
       </c>
     </row>
@@ -1622,16 +1584,16 @@
       <c r="B64" s="6">
         <v>43617</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="11">
         <v>8.25</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="11">
         <v>8.51</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="12">
         <v>19.2087</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="13">
         <v>21.87199</v>
       </c>
     </row>
@@ -1639,16 +1601,16 @@
       <c r="B65" s="5">
         <v>43586</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="8">
         <v>8.07</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="8">
         <v>8.51</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="9">
         <v>19.642600000000002</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="10">
         <v>21.893640000000001</v>
       </c>
     </row>
@@ -1656,16 +1618,16 @@
       <c r="B66" s="6">
         <v>43556</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="11">
         <v>7.78</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="11">
         <v>8.5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="12">
         <v>19.009899999999998</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="13">
         <v>21.30725</v>
       </c>
     </row>
@@ -1673,16 +1635,16 @@
       <c r="B67" s="5">
         <v>43525</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="8">
         <v>8.02</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="8">
         <v>8.52</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="9">
         <v>19.3779</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="10">
         <v>21.7546</v>
       </c>
     </row>
@@ -1690,16 +1652,16 @@
       <c r="B68" s="6">
         <v>43497</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="11">
         <v>7.93</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="11">
         <v>8.56</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="12">
         <v>19.2607</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="13">
         <v>21.929269999999999</v>
       </c>
     </row>
@@ -1707,16 +1669,16 @@
       <c r="B69" s="5">
         <v>43466</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="8">
         <v>7.95</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="8">
         <v>8.59</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="9">
         <v>19.038799999999998</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="10">
         <v>21.848929999999999</v>
       </c>
     </row>
@@ -1724,16 +1686,16 @@
       <c r="B70" s="6">
         <v>43435</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="11">
         <v>8.02</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="11">
         <v>8.41</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="12">
         <v>19.651199999999999</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="13">
         <v>22.469180000000001</v>
       </c>
     </row>
@@ -1741,16 +1703,16 @@
       <c r="B71" s="5">
         <v>43405</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="8">
         <v>7.83</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="8">
         <v>8.25</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="9">
         <v>20.345500000000001</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="10">
         <v>23.038229999999999</v>
       </c>
     </row>
@@ -1758,16 +1720,16 @@
       <c r="B72" s="6">
         <v>43374</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="11">
         <v>7.69</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="11">
         <v>8.1199999999999992</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="12">
         <v>20.317699999999999</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="13">
         <v>22.997599999999998</v>
       </c>
     </row>
@@ -1775,16 +1737,16 @@
       <c r="B73" s="5">
         <v>43344</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="8">
         <v>7.69</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="8">
         <v>8.11</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="9">
         <v>18.723099999999999</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="10">
         <v>21.74314</v>
       </c>
     </row>
@@ -1792,16 +1754,16 @@
       <c r="B74" s="6">
         <v>43313</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="11">
         <v>7.73</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="11">
         <v>8.11</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="12">
         <v>19.179200000000002</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="13">
         <v>22.317879999999999</v>
       </c>
     </row>
@@ -1809,16 +1771,16 @@
       <c r="B75" s="5">
         <v>43282</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="8">
         <v>7.73</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="8">
         <v>8.1</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="9">
         <v>18.645700000000001</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="10">
         <v>21.818269999999998</v>
       </c>
     </row>
@@ -1826,16 +1788,16 @@
       <c r="B76" s="6">
         <v>43252</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="11">
         <v>7.64</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="11">
         <v>7.93</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="12">
         <v>19.691199999999998</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="13">
         <v>22.988489999999999</v>
       </c>
     </row>
@@ -1843,16 +1805,16 @@
       <c r="B77" s="5">
         <v>43221</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="8">
         <v>7.51</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="8">
         <v>7.85</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="9">
         <v>19.975899999999999</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="10">
         <v>23.31887</v>
       </c>
     </row>
@@ -1860,16 +1822,16 @@
       <c r="B78" s="6">
         <v>43191</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="11">
         <v>7.46</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="11">
         <v>7.84</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="12">
         <v>18.787800000000001</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="13">
         <v>22.6966</v>
       </c>
     </row>
@@ -1877,16 +1839,16 @@
       <c r="B79" s="5">
         <v>43160</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="8">
         <v>7.47</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="8">
         <v>7.78</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="9">
         <v>18.270900000000001</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="10">
         <v>22.56456</v>
       </c>
     </row>
@@ -1894,33 +1856,33 @@
       <c r="B80" s="6">
         <v>43132</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="11">
         <v>7.4</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="11">
         <v>7.78</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="12">
         <v>18.833100000000002</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="13">
         <v>22.973559999999999</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="5">
+      <c r="B81" s="7">
         <v>43101</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="14">
         <v>7.25</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="14">
         <v>7.64</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="15">
         <v>18.6069</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="16">
         <v>23.18234</v>
       </c>
     </row>
@@ -1928,65 +1890,65 @@
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
       <c r="I84" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1995,8 +1957,5 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A47036-75F3-4562-BB26-F5288A7D34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D301341-86E6-4E87-BC99-9805E75E0682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -146,43 +146,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -218,12 +185,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -237,42 +226,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -283,6 +370,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:F81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:F81" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3AE25E63-D3E5-4F1E-9780-3E9785CE767C}" name="Periodo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6C718EC1-AE58-4490-AAC5-784ADF8A54E6}" name=" CETES 28 días" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{EB4A0D85-B4BA-4340-8E56-45C5DE5CD542}" name=" TIIE a 28 días" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="4" xr3:uid="{1AA25D39-CE79-45F0-BECE-0438D7BFBB83}" name="Peso /dólar" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1AD5CFD4-21AD-4663-9B42-ABDFA549FE30}" name="Peso /euro" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +625,10 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
     <col min="7" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
@@ -561,1328 +668,1328 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+      <c r="B5" s="18">
         <v>45413</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>10.99</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>11.24</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="13">
         <v>17.017700000000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>18.476970000000001</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+      <c r="B6" s="19">
         <v>45383</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>10.97</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>11.25</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>17.095800000000001</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <v>18.275410000000001</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="20">
         <v>45352</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>11.02</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>11.44</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>16.532299999999999</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>17.881340000000002</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+      <c r="B8" s="19">
         <v>45323</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>11.05</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>11.5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>17.063300000000002</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <v>18.465900000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+      <c r="B9" s="21">
         <v>45292</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>11.29</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>11.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>17.1633</v>
       </c>
       <c r="F9" s="10">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22">
         <v>45261</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="16">
         <v>11.21</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="16">
         <v>11.5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="17">
         <v>16.919</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
         <v>45231</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>10.89</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>11.51</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>17.373000000000001</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
         <v>45200</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>11.08</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>11.5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="15">
         <v>18.036799999999999</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
         <v>45170</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>11.08</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>11.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>17.412700000000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19">
         <v>45139</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>11.16</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>11.5</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>16.917000000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="15">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
         <v>45108</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>11.22</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>11.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>16.7303</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19">
         <v>45078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>11.16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>11.5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>17.1358</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
         <v>45047</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>11.32</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>11.54</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>17.741800000000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19">
         <v>45017</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>11.29</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>11.53</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="15">
         <v>17.997499999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="15">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
         <v>44986</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>11.23</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>11.34</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>18.041499999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19">
         <v>44958</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>10.92</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <v>11.1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>18.344799999999999</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="15">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21">
         <v>44927</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>10.61</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>10.78</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>18.793700000000001</v>
       </c>
       <c r="F21" s="10">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22">
         <v>44896</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="16">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="16">
         <v>10.53</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="17">
         <v>19.471499999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="17">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
         <v>44866</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>9.42</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>10</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>19.3965</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19">
         <v>44835</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>8.93</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <v>9.56</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="15">
         <v>19.8245</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="15">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="20">
         <v>44805</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>8.89</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>20.092500000000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="19">
         <v>44774</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>8.25</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="14">
         <v>8.5</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="15">
         <v>20.0962</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="15">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
         <v>44743</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>7.76</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>8.0399999999999991</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>20.348500000000001</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="19">
         <v>44713</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>7.31</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>7.42</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="15">
         <v>20.133500000000002</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="15">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20">
         <v>44682</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>6.91</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>7.01</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>19.693999999999999</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="19">
         <v>44652</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>6.56</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="14">
         <v>6.73</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="15">
         <v>20.372800000000002</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="15">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20">
         <v>44621</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>6.31</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>6.33</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>19.911200000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19">
         <v>44593</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>5.87</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>6.02</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="15">
         <v>20.425699999999999</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="15">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21">
         <v>44562</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>5.53</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>5.72</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>20.635200000000001</v>
       </c>
       <c r="F33" s="10">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22">
         <v>44531</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="16">
         <v>5.29</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="16">
         <v>5.44</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="17">
         <v>20.467199999999998</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="17">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="20">
         <v>44501</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>5.05</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>5.13</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>21.4453</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="19">
         <v>44470</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="14">
         <v>4.84</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="14">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="15">
         <v>20.529699999999998</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="15">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+    <row r="37" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20">
         <v>44440</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>4.55</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>4.75</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>20.5623</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="19">
         <v>44409</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="14">
         <v>4.46</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="14">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="15">
         <v>20.060500000000001</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="15">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20">
         <v>44378</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>4.32</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <v>19.845500000000001</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="19">
         <v>44348</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="14">
         <v>4.32</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="15">
         <v>19.906199999999998</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="15">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20">
         <v>44317</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>4.29</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>19.921299999999999</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="19">
         <v>44287</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="14">
         <v>4.07</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="14">
         <v>4.28</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="15">
         <v>20.182200000000002</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="15">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20">
         <v>44256</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>4.05</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>4.28</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <v>20.440000000000001</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="19">
         <v>44228</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="14">
         <v>4.12</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="14">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="15">
         <v>20.939</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="15">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="21">
         <v>44197</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>4.22</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>4.47</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="10">
         <v>20.224799999999998</v>
       </c>
       <c r="F45" s="10">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="22">
         <v>44166</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="16">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="16">
         <v>4.49</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="17">
         <v>19.9087</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="17">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20">
         <v>44136</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>4.5</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="6">
         <v>20.139800000000001</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="19">
         <v>44105</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="14">
         <v>4.2</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="14">
         <v>4.53</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="15">
         <v>21.250800000000002</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="15">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20">
         <v>44075</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>4.38</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>4.72</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>22.143799999999999</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="19">
         <v>44044</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="14">
         <v>4.49</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="14">
         <v>4.97</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="15">
         <v>21.888000000000002</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="15">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20">
         <v>44013</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>4.82</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>5.23</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <v>22.2012</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="6">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="19">
         <v>43983</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="14">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="14">
         <v>5.65</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="15">
         <v>23.089300000000001</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="15">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20">
         <v>43952</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>5.47</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>6</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="6">
         <v>22.177800000000001</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="19">
         <v>43922</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="14">
         <v>6.09</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="14">
         <v>6.54</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="15">
         <v>23.9283</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="15">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20">
         <v>43891</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>6.81</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>7.1</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="6">
         <v>23.4847</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="19">
         <v>43862</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="14">
         <v>6.96</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="14">
         <v>7.39</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="15">
         <v>19.776</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="15">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="21">
         <v>43831</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>7.12</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>7.53</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="10">
         <v>18.908200000000001</v>
       </c>
       <c r="F57" s="10">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="22">
         <v>43800</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="16">
         <v>7.12</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="16">
         <v>7.7</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="17">
         <v>18.8642</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="17">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20">
         <v>43770</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <v>7.47</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>7.87</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="6">
         <v>19.5352</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="6">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="19">
         <v>43739</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="14">
         <v>7.66</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="14">
         <v>8</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="15">
         <v>19.194800000000001</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="15">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20">
         <v>43709</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="5">
         <v>7.72</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="6">
         <v>19.734500000000001</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="19">
         <v>43678</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="14">
         <v>8.01</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="14">
         <v>8.3699999999999992</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="15">
         <v>20.069600000000001</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="15">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="20">
         <v>43647</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>8.14</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>8.48</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="6">
         <v>18.992899999999999</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="19">
         <v>43617</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="14">
         <v>8.25</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="14">
         <v>8.51</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="15">
         <v>19.2087</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="15">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20">
         <v>43586</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="5">
         <v>8.07</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>8.51</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="6">
         <v>19.642600000000002</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="19">
         <v>43556</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="14">
         <v>7.78</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="14">
         <v>8.5</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="15">
         <v>19.009899999999998</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="15">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
         <v>43525</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <v>8.02</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>8.52</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="6">
         <v>19.3779</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="6">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="19">
         <v>43497</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="14">
         <v>7.93</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="14">
         <v>8.56</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="15">
         <v>19.2607</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="15">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="21">
         <v>43466</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>7.95</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
         <v>8.59</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="10">
         <v>19.038799999999998</v>
       </c>
       <c r="F69" s="10">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="19">
         <v>43435</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="7">
         <v>8.02</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="7">
         <v>8.41</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="8">
         <v>19.651199999999999</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="15">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
         <v>43405</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="5">
         <v>7.83</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>8.25</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="6">
         <v>20.345500000000001</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="6">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="19">
         <v>43374</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="7">
         <v>7.69</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="7">
         <v>8.1199999999999992</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="8">
         <v>20.317699999999999</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="15">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="20">
         <v>43344</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <v>7.69</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>8.11</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="6">
         <v>18.723099999999999</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="6">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="19">
         <v>43313</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="7">
         <v>7.73</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="7">
         <v>8.11</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="8">
         <v>19.179200000000002</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="15">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="20">
         <v>43282</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>7.73</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>8.1</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="6">
         <v>18.645700000000001</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="6">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="19">
         <v>43252</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="7">
         <v>7.64</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="7">
         <v>7.93</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="8">
         <v>19.691199999999998</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="15">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="20">
         <v>43221</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>7.51</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>7.85</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="6">
         <v>19.975899999999999</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="6">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="19">
         <v>43191</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="7">
         <v>7.46</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="7">
         <v>7.84</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="8">
         <v>18.787800000000001</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="15">
         <v>22.6966</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="20">
         <v>43160</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="5">
         <v>7.47</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>7.78</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="6">
         <v>18.270900000000001</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="6">
         <v>22.56456</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="19">
         <v>43132</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="7">
         <v>7.4</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="7">
         <v>7.78</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="8">
         <v>18.833100000000002</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="15">
         <v>22.973559999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="7">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="20">
         <v>43101</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="5">
         <v>7.25</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="5">
         <v>7.64</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="6">
         <v>18.6069</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="6">
         <v>23.18234</v>
       </c>
     </row>
@@ -1937,18 +2044,18 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1957,5 +2064,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27064061-06DC-42DA-928B-CFB5160C069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2724CBE-ED46-4E9B-A9F8-A1991C27E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -286,8 +322,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -298,14 +340,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -389,12 +425,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3AE25E63-D3E5-4F1E-9780-3E9785CE767C}" name="Año" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A84AE69C-6C78-4FCA-BC8D-B0FE951011E4}" name="Mes" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{6C718EC1-AE58-4490-AAC5-784ADF8A54E6}" name=" CETES 28 días" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{EB4A0D85-B4BA-4340-8E56-45C5DE5CD542}" name=" TIIE a 28 días" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="4" xr3:uid="{1AA25D39-CE79-45F0-BECE-0438D7BFBB83}" name="Peso /dólar" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1AD5CFD4-21AD-4663-9B42-ABDFA549FE30}" name="Peso /euro" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3AE25E63-D3E5-4F1E-9780-3E9785CE767C}" name="Año" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A84AE69C-6C78-4FCA-BC8D-B0FE951011E4}" name="Mes" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{6C718EC1-AE58-4490-AAC5-784ADF8A54E6}" name=" CETES 28 días" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{EB4A0D85-B4BA-4340-8E56-45C5DE5CD542}" name=" TIIE a 28 días" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="4" xr3:uid="{1AA25D39-CE79-45F0-BECE-0438D7BFBB83}" name="Peso /dólar" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1AD5CFD4-21AD-4663-9B42-ABDFA549FE30}" name="Peso /euro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,8 +738,8 @@
       <c r="B5" s="17">
         <v>2024</v>
       </c>
-      <c r="C5" s="17">
-        <v>8</v>
+      <c r="C5" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>10.76</v>
@@ -722,8 +758,8 @@
       <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="18">
-        <v>7</v>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>10.92</v>
@@ -742,8 +778,8 @@
       <c r="B7" s="17">
         <v>2024</v>
       </c>
-      <c r="C7" s="17">
-        <v>6</v>
+      <c r="C7" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>10.97</v>
@@ -762,8 +798,8 @@
       <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C8" s="18">
-        <v>5</v>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="7">
         <v>10.99</v>
@@ -782,8 +818,8 @@
       <c r="B9" s="17">
         <v>2024</v>
       </c>
-      <c r="C9" s="17">
-        <v>4</v>
+      <c r="C9" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="5">
         <v>10.97</v>
@@ -802,8 +838,8 @@
       <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C10" s="18">
-        <v>3</v>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="7">
         <v>11.02</v>
@@ -822,8 +858,8 @@
       <c r="B11" s="17">
         <v>2024</v>
       </c>
-      <c r="C11" s="17">
-        <v>2</v>
+      <c r="C11" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="5">
         <v>11.05</v>
@@ -842,8 +878,8 @@
       <c r="B12" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="19">
-        <v>1</v>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="12">
         <v>11.29</v>
@@ -862,8 +898,8 @@
       <c r="B13" s="20">
         <v>2023</v>
       </c>
-      <c r="C13" s="17">
-        <v>12</v>
+      <c r="C13" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="5">
         <v>11.21</v>
@@ -882,8 +918,8 @@
       <c r="B14" s="18">
         <v>2023</v>
       </c>
-      <c r="C14" s="18">
-        <v>11</v>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="7">
         <v>10.89</v>
@@ -902,8 +938,8 @@
       <c r="B15" s="17">
         <v>2023</v>
       </c>
-      <c r="C15" s="17">
-        <v>10</v>
+      <c r="C15" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="5">
         <v>11.08</v>
@@ -922,8 +958,8 @@
       <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="18">
-        <v>9</v>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="7">
         <v>11.08</v>
@@ -942,8 +978,8 @@
       <c r="B17" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="17">
-        <v>8</v>
+      <c r="C17" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="5">
         <v>11.16</v>
@@ -962,8 +998,8 @@
       <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="18">
-        <v>7</v>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="7">
         <v>11.22</v>
@@ -982,8 +1018,8 @@
       <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C19" s="17">
-        <v>6</v>
+      <c r="C19" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="5">
         <v>11.16</v>
@@ -1002,8 +1038,8 @@
       <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="18">
-        <v>5</v>
+      <c r="C20" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="7">
         <v>11.32</v>
@@ -1022,8 +1058,8 @@
       <c r="B21" s="17">
         <v>2023</v>
       </c>
-      <c r="C21" s="17">
-        <v>4</v>
+      <c r="C21" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="5">
         <v>11.29</v>
@@ -1042,8 +1078,8 @@
       <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="18">
-        <v>3</v>
+      <c r="C22" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="7">
         <v>11.23</v>
@@ -1062,8 +1098,8 @@
       <c r="B23" s="17">
         <v>2023</v>
       </c>
-      <c r="C23" s="17">
-        <v>2</v>
+      <c r="C23" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="5">
         <v>10.92</v>
@@ -1082,8 +1118,8 @@
       <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="19">
-        <v>1</v>
+      <c r="C24" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="12">
         <v>10.61</v>
@@ -1102,8 +1138,8 @@
       <c r="B25" s="20">
         <v>2022</v>
       </c>
-      <c r="C25" s="17">
-        <v>12</v>
+      <c r="C25" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="5">
         <v>9.9600000000000009</v>
@@ -1122,8 +1158,8 @@
       <c r="B26" s="18">
         <v>2022</v>
       </c>
-      <c r="C26" s="18">
-        <v>11</v>
+      <c r="C26" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="7">
         <v>9.42</v>
@@ -1142,8 +1178,8 @@
       <c r="B27" s="17">
         <v>2022</v>
       </c>
-      <c r="C27" s="17">
-        <v>10</v>
+      <c r="C27" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="5">
         <v>8.93</v>
@@ -1162,8 +1198,8 @@
       <c r="B28" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="18">
-        <v>9</v>
+      <c r="C28" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D28" s="7">
         <v>8.6999999999999993</v>
@@ -1182,8 +1218,8 @@
       <c r="B29" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="17">
-        <v>8</v>
+      <c r="C29" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="5">
         <v>8.25</v>
@@ -1202,8 +1238,8 @@
       <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="18">
-        <v>7</v>
+      <c r="C30" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="7">
         <v>7.76</v>
@@ -1222,8 +1258,8 @@
       <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C31" s="17">
-        <v>6</v>
+      <c r="C31" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="5">
         <v>7.31</v>
@@ -1242,8 +1278,8 @@
       <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="18">
-        <v>5</v>
+      <c r="C32" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D32" s="7">
         <v>6.91</v>
@@ -1262,8 +1298,8 @@
       <c r="B33" s="17">
         <v>2022</v>
       </c>
-      <c r="C33" s="17">
-        <v>4</v>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="5">
         <v>6.56</v>
@@ -1282,8 +1318,8 @@
       <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="18">
-        <v>3</v>
+      <c r="C34" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="7">
         <v>6.31</v>
@@ -1302,8 +1338,8 @@
       <c r="B35" s="17">
         <v>2022</v>
       </c>
-      <c r="C35" s="17">
-        <v>2</v>
+      <c r="C35" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="5">
         <v>5.87</v>
@@ -1322,8 +1358,8 @@
       <c r="B36" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="19">
-        <v>1</v>
+      <c r="C36" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="12">
         <v>5.53</v>
@@ -1342,8 +1378,8 @@
       <c r="B37" s="17">
         <v>2021</v>
       </c>
-      <c r="C37" s="17">
-        <v>12</v>
+      <c r="C37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="5">
         <v>5.29</v>
@@ -1362,8 +1398,8 @@
       <c r="B38" s="18">
         <v>2021</v>
       </c>
-      <c r="C38" s="18">
-        <v>11</v>
+      <c r="C38" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="7">
         <v>5.05</v>
@@ -1382,8 +1418,8 @@
       <c r="B39" s="17">
         <v>2021</v>
       </c>
-      <c r="C39" s="17">
-        <v>10</v>
+      <c r="C39" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D39" s="5">
         <v>4.84</v>
@@ -1402,8 +1438,8 @@
       <c r="B40" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="18">
-        <v>9</v>
+      <c r="C40" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="7">
         <v>4.55</v>
@@ -1422,8 +1458,8 @@
       <c r="B41" s="17">
         <v>2021</v>
       </c>
-      <c r="C41" s="17">
-        <v>8</v>
+      <c r="C41" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D41" s="5">
         <v>4.46</v>
@@ -1442,8 +1478,8 @@
       <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="18">
-        <v>7</v>
+      <c r="C42" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="7">
         <v>4.32</v>
@@ -1462,8 +1498,8 @@
       <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C43" s="17">
-        <v>6</v>
+      <c r="C43" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D43" s="5">
         <v>4.0199999999999996</v>
@@ -1482,8 +1518,8 @@
       <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="18">
-        <v>5</v>
+      <c r="C44" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="7">
         <v>4.0599999999999996</v>
@@ -1502,8 +1538,8 @@
       <c r="B45" s="17">
         <v>2021</v>
       </c>
-      <c r="C45" s="17">
-        <v>4</v>
+      <c r="C45" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D45" s="5">
         <v>4.07</v>
@@ -1522,8 +1558,8 @@
       <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="18">
-        <v>3</v>
+      <c r="C46" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D46" s="7">
         <v>4.05</v>
@@ -1542,8 +1578,8 @@
       <c r="B47" s="17">
         <v>2021</v>
       </c>
-      <c r="C47" s="17">
-        <v>2</v>
+      <c r="C47" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D47" s="5">
         <v>4.12</v>
@@ -1562,8 +1598,8 @@
       <c r="B48" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="19">
-        <v>1</v>
+      <c r="C48" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="12">
         <v>4.22</v>
@@ -1582,8 +1618,8 @@
       <c r="B49" s="17">
         <v>2020</v>
       </c>
-      <c r="C49" s="17">
-        <v>12</v>
+      <c r="C49" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D49" s="5">
         <v>4.2699999999999996</v>
@@ -1602,8 +1638,8 @@
       <c r="B50" s="18">
         <v>2020</v>
       </c>
-      <c r="C50" s="18">
-        <v>11</v>
+      <c r="C50" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="7">
         <v>4.2300000000000004</v>
@@ -1622,8 +1658,8 @@
       <c r="B51" s="17">
         <v>2020</v>
       </c>
-      <c r="C51" s="17">
-        <v>10</v>
+      <c r="C51" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="5">
         <v>4.2</v>
@@ -1642,8 +1678,8 @@
       <c r="B52" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="18">
-        <v>9</v>
+      <c r="C52" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D52" s="7">
         <v>4.38</v>
@@ -1662,8 +1698,8 @@
       <c r="B53" s="17">
         <v>2020</v>
       </c>
-      <c r="C53" s="17">
-        <v>8</v>
+      <c r="C53" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D53" s="5">
         <v>4.49</v>
@@ -1682,8 +1718,8 @@
       <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="18">
-        <v>7</v>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D54" s="7">
         <v>4.82</v>
@@ -1702,8 +1738,8 @@
       <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C55" s="17">
-        <v>6</v>
+      <c r="C55" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D55" s="5">
         <v>5.0599999999999996</v>
@@ -1722,8 +1758,8 @@
       <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="18">
-        <v>5</v>
+      <c r="C56" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D56" s="7">
         <v>5.47</v>
@@ -1742,8 +1778,8 @@
       <c r="B57" s="17">
         <v>2020</v>
       </c>
-      <c r="C57" s="17">
-        <v>4</v>
+      <c r="C57" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D57" s="5">
         <v>6.09</v>
@@ -1762,8 +1798,8 @@
       <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="18">
-        <v>3</v>
+      <c r="C58" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D58" s="7">
         <v>6.81</v>
@@ -1782,8 +1818,8 @@
       <c r="B59" s="17">
         <v>2020</v>
       </c>
-      <c r="C59" s="17">
-        <v>2</v>
+      <c r="C59" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D59" s="5">
         <v>6.96</v>
@@ -1802,8 +1838,8 @@
       <c r="B60" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="19">
-        <v>1</v>
+      <c r="C60" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="12">
         <v>7.12</v>
@@ -1822,8 +1858,8 @@
       <c r="B61" s="17">
         <v>2019</v>
       </c>
-      <c r="C61" s="17">
-        <v>12</v>
+      <c r="C61" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D61" s="5">
         <v>7.12</v>
@@ -1842,8 +1878,8 @@
       <c r="B62" s="18">
         <v>2019</v>
       </c>
-      <c r="C62" s="18">
-        <v>11</v>
+      <c r="C62" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="7">
         <v>7.47</v>
@@ -1862,8 +1898,8 @@
       <c r="B63" s="17">
         <v>2019</v>
       </c>
-      <c r="C63" s="17">
-        <v>10</v>
+      <c r="C63" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="5">
         <v>7.66</v>
@@ -1882,8 +1918,8 @@
       <c r="B64" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="18">
-        <v>9</v>
+      <c r="C64" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D64" s="7">
         <v>7.72</v>
@@ -1902,8 +1938,8 @@
       <c r="B65" s="17">
         <v>2019</v>
       </c>
-      <c r="C65" s="17">
-        <v>8</v>
+      <c r="C65" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D65" s="5">
         <v>8.01</v>
@@ -1922,8 +1958,8 @@
       <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="18">
-        <v>7</v>
+      <c r="C66" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D66" s="7">
         <v>8.14</v>
@@ -1942,8 +1978,8 @@
       <c r="B67" s="17">
         <v>2019</v>
       </c>
-      <c r="C67" s="17">
-        <v>6</v>
+      <c r="C67" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D67" s="5">
         <v>8.25</v>
@@ -1962,8 +1998,8 @@
       <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="18">
-        <v>5</v>
+      <c r="C68" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D68" s="7">
         <v>8.07</v>
@@ -1982,8 +2018,8 @@
       <c r="B69" s="17">
         <v>2019</v>
       </c>
-      <c r="C69" s="17">
-        <v>4</v>
+      <c r="C69" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D69" s="5">
         <v>7.78</v>
@@ -2002,8 +2038,8 @@
       <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="18">
-        <v>3</v>
+      <c r="C70" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D70" s="7">
         <v>8.02</v>
@@ -2022,8 +2058,8 @@
       <c r="B71" s="17">
         <v>2019</v>
       </c>
-      <c r="C71" s="17">
-        <v>2</v>
+      <c r="C71" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D71" s="5">
         <v>7.93</v>
@@ -2042,8 +2078,8 @@
       <c r="B72" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="19">
-        <v>1</v>
+      <c r="C72" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D72" s="12">
         <v>7.95</v>
@@ -2062,8 +2098,8 @@
       <c r="B73" s="17">
         <v>2018</v>
       </c>
-      <c r="C73" s="17">
-        <v>12</v>
+      <c r="C73" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D73" s="5">
         <v>8.02</v>
@@ -2082,8 +2118,8 @@
       <c r="B74" s="18">
         <v>2018</v>
       </c>
-      <c r="C74" s="18">
-        <v>11</v>
+      <c r="C74" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D74" s="7">
         <v>7.83</v>
@@ -2102,8 +2138,8 @@
       <c r="B75" s="17">
         <v>2018</v>
       </c>
-      <c r="C75" s="17">
-        <v>10</v>
+      <c r="C75" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="5">
         <v>7.69</v>
@@ -2122,8 +2158,8 @@
       <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="18">
-        <v>9</v>
+      <c r="C76" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D76" s="7">
         <v>7.69</v>
@@ -2142,8 +2178,8 @@
       <c r="B77" s="17">
         <v>2018</v>
       </c>
-      <c r="C77" s="17">
-        <v>8</v>
+      <c r="C77" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D77" s="5">
         <v>7.73</v>
@@ -2162,8 +2198,8 @@
       <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="18">
-        <v>7</v>
+      <c r="C78" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="7">
         <v>7.73</v>
@@ -2182,8 +2218,8 @@
       <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C79" s="17">
-        <v>6</v>
+      <c r="C79" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D79" s="5">
         <v>7.64</v>
@@ -2202,8 +2238,8 @@
       <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="18">
-        <v>5</v>
+      <c r="C80" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D80" s="7">
         <v>7.51</v>
@@ -2222,8 +2258,8 @@
       <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="17">
-        <v>4</v>
+      <c r="C81" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D81" s="5">
         <v>7.46</v>
@@ -2242,8 +2278,8 @@
       <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="18">
-        <v>3</v>
+      <c r="C82" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D82" s="7">
         <v>7.47</v>
@@ -2262,8 +2298,8 @@
       <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="17">
-        <v>2</v>
+      <c r="C83" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D83" s="5">
         <v>7.4</v>
@@ -2284,8 +2320,8 @@
       <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="19">
-        <v>1</v>
+      <c r="C84" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D84" s="7">
         <v>7.25</v>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2724CBE-ED46-4E9B-A9F8-A1991C27E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD5E1C4-26DF-4FAC-B5B2-7100B1152E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F4BA9-73FA-439B-80EE-20C5E413E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC2F4C-BDED-4BD0-B5E3-83D07EBAC8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -110,7 +110,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -124,19 +127,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,20 +147,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,7 +382,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -415,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G85" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G85" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G86" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G86" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -439,7 +442,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,28 +450,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -477,14 +480,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -659,28 +662,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -714,7 +717,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -734,1626 +737,1626 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
         <v>2024</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10.74</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20.037800000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>21.778079999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>10.44</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>10.95</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <v>19.643999999999998</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="17">
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
         <v>2024</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="5">
         <v>10.76</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>11.08</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>19.653500000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>10.92</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>11.25</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>18.597000000000001</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
         <v>2024</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>10.97</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>11.24</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>18.247800000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>10.99</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>11.24</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>17.017700000000001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="17">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
         <v>2024</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>10.97</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>11.25</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>17.095800000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>11.02</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>11.44</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>16.532299999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="17">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <v>11.05</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <v>11.5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>17.063300000000002</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="19">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>2024</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>11.29</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>11.5</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>17.1633</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="20">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>2023</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>11.21</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>11.5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>16.919</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="18">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>10.89</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>11.51</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>17.373000000000001</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="17">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
         <v>2023</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>11.08</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>11.5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>18.036799999999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>11.08</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>11.5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>17.412700000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="17">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>11.16</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>11.5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>16.917000000000002</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>11.22</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>11.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>16.7303</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="17">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
         <v>2023</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>11.16</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>11.5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>17.1358</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>11.32</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>11.54</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>17.741800000000001</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="17">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
         <v>2023</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>11.29</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>11.53</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>17.997499999999999</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="18">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>11.23</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>11.34</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>18.041499999999999</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="17">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>10.92</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>11.1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>18.344799999999999</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="19">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>10.61</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>10.78</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
         <v>2022</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>10.53</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>19.471499999999999</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
         <v>2022</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>9.42</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>10</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>19.3965</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="17">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
         <v>2022</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>8.93</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>9.56</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>19.8245</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>8.89</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>20.092500000000001</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="5">
         <v>8.25</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <v>8.5</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>20.0962</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>7.76</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>20.348500000000001</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="17">
         <v>2022</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="5">
         <v>7.31</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>7.42</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>20.133500000000002</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="18">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>6.91</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>7.01</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>19.693999999999999</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="17">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
         <v>2022</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="5">
         <v>6.56</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>6.73</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>20.372800000000002</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>6.31</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>6.33</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>19.911200000000001</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="17">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <v>5.87</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>6.02</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>20.425699999999999</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="19">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>5.53</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>5.72</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17">
+    <row r="39" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
         <v>2021</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="5">
         <v>5.29</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>5.44</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>20.467199999999998</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="18">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
         <v>2021</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>5.05</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>5.13</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>21.4453</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="17">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
         <v>2021</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>4.84</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>20.529699999999998</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="18">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D42" s="7">
         <v>4.55</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>4.75</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>20.5623</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="17">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="5">
         <v>4.46</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>20.060500000000001</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="18">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>4.32</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>19.845500000000001</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="17">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17">
         <v>2021</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="5">
         <v>4.32</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>19.906199999999998</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="7">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>4.29</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>19.921299999999999</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="17">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
         <v>2021</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="5">
         <v>4.07</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>4.28</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>20.182200000000002</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="18">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="7">
         <v>4.05</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>4.28</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="8">
         <v>20.440000000000001</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="17">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="5">
         <v>4.12</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>20.939</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="19">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>4.22</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>4.47</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
         <v>2020</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="5">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="5">
         <v>4.49</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>19.9087</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="18">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
         <v>2020</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="7">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="7">
         <v>4.5</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>20.139800000000001</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
         <v>2020</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="5">
         <v>4.2</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="5">
         <v>4.53</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>21.250800000000002</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="18">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="7">
         <v>4.38</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>4.72</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>22.143799999999999</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="17">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="5">
         <v>4.49</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="5">
         <v>4.97</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>21.888000000000002</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="18">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>4.82</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>5.23</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>22.2012</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
         <v>2020</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="5">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="5">
         <v>5.65</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>23.089300000000001</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="18">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="7">
         <v>5.47</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>6</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>22.177800000000001</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="17">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
         <v>2020</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="5">
         <v>6.09</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="5">
         <v>6.54</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>23.9283</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="18">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="7">
         <v>6.81</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>7.1</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>23.4847</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="17">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="5">
         <v>6.96</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="5">
         <v>7.39</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>19.776</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="19">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>7.12</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>7.53</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>18.908200000000001</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="17">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
         <v>2019</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="5">
         <v>7.12</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="5">
         <v>7.7</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>18.8642</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="18">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
         <v>2019</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="7">
         <v>7.47</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="7">
         <v>7.87</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>19.5352</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="17">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="17">
         <v>2019</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="5">
         <v>7.66</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="5">
         <v>8</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>19.194800000000001</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="18">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="7">
         <v>7.72</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>19.734500000000001</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="17">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="5">
         <v>8.01</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>20.069600000000001</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="18">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="7">
         <v>8.14</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>8.48</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F68" s="8">
         <v>18.992899999999999</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="17">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="17">
         <v>2019</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C69" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="5">
         <v>8.25</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
         <v>8.51</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>19.2087</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="18">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="7">
         <v>8.07</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>8.51</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>19.642600000000002</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="17">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="17">
         <v>2019</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="5">
         <v>7.78</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <v>8.5</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>19.009899999999998</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="18">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="7">
         <v>8.02</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>8.52</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>19.3779</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="17">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="5">
         <v>7.93</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="5">
         <v>8.56</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>19.2607</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="19">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <v>7.95</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>8.59</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="17">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="17">
         <v>2018</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <v>8.02</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E75" s="5">
         <v>8.41</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>19.651199999999999</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D76" s="7">
         <v>7.83</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>8.25</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>20.345500000000001</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="17">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="17">
         <v>2018</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="5">
         <v>7.69</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>20.317699999999999</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="18">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="7">
         <v>7.69</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>8.11</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>18.723099999999999</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="17">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="5">
         <v>7.73</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="5">
         <v>8.11</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>19.179200000000002</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="18">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="7">
         <v>7.73</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>8.1</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>18.645700000000001</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="17">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="5">
         <v>7.64</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <v>7.93</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>19.691199999999998</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="18">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>7.51</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>7.85</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>19.975899999999999</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="17">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="5">
         <v>7.46</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>7.84</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>18.787800000000001</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>22.6966</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="18">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>7.47</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>7.78</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>18.270900000000001</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>22.56456</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="E84" s="5">
-        <v>7.78</v>
-      </c>
-      <c r="F84" s="6">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G84" s="6">
-        <v>22.973559999999999</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="18">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="7">
-        <v>7.25</v>
-      </c>
-      <c r="E85" s="7">
-        <v>7.64</v>
-      </c>
-      <c r="F85" s="8">
-        <v>18.6069</v>
-      </c>
-      <c r="G85" s="8">
-        <v>23.18234</v>
+      <c r="C85" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="E85" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="F85" s="6">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G85" s="6">
+        <v>22.973559999999999</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -2361,36 +2364,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="7">
+        <v>7.25</v>
+      </c>
+      <c r="E86" s="7">
+        <v>7.64</v>
+      </c>
+      <c r="F86" s="8">
+        <v>18.6069</v>
+      </c>
+      <c r="G86" s="8">
+        <v>23.18234</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -2400,34 +2413,44 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="2"/>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796E29E8-44F7-4F86-9632-3402478E432F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DD3BA-4EC4-4125-8F74-18709DFF91D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -107,13 +107,13 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">           A partir de noviembre de 2021 se toma como base el tipo de cambio (FIX).</t>
   </si>
   <si>
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
+  </si>
+  <si>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -339,55 +339,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -487,6 +438,55 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -501,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G87" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B4:G87" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G88" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -510,12 +510,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3AE25E63-D3E5-4F1E-9780-3E9785CE767C}" name="Año" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A84AE69C-6C78-4FCA-BC8D-B0FE951011E4}" name="Mes" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{6C718EC1-AE58-4490-AAC5-784ADF8A54E6}" name=" CETES 28 días" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{EB4A0D85-B4BA-4340-8E56-45C5DE5CD542}" name=" TIIE a 28 días" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="4" xr3:uid="{1AA25D39-CE79-45F0-BECE-0438D7BFBB83}" name="Peso /dólar" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1AD5CFD4-21AD-4663-9B42-ABDFA549FE30}" name="Peso /euro" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3AE25E63-D3E5-4F1E-9780-3E9785CE767C}" name="Año" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A84AE69C-6C78-4FCA-BC8D-B0FE951011E4}" name="Mes" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{6C718EC1-AE58-4490-AAC5-784ADF8A54E6}" name=" CETES 28 días" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{EB4A0D85-B4BA-4340-8E56-45C5DE5CD542}" name=" TIIE a 28 días" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="4" xr3:uid="{1AA25D39-CE79-45F0-BECE-0438D7BFBB83}" name="Peso /dólar" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1AD5CFD4-21AD-4663-9B42-ABDFA549FE30}" name="Peso /euro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -744,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -821,1645 +821,1645 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9.85</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10.38</v>
+      </c>
+      <c r="F5" s="13">
+        <v>20.786200000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>21.523070000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>10.050000000000001</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>10.61</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>20.321200000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>10.24</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>10.74</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>20.037800000000001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>10.44</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>10.95</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>19.643999999999998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>10.76</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>11.08</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>19.653500000000001</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>10.92</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>11.25</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>18.597000000000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>10.97</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>11.24</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>18.247800000000002</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>10.99</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>11.24</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>17.017700000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>10.97</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>11.25</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>17.095800000000001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>11.02</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>11.44</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>16.532299999999999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>11.05</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>11.5</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>17.063300000000002</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="15">
         <v>11.29</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>11.5</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>17.1633</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="17">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2023</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>11.21</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>11.5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>16.919</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G17" s="18">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>10.89</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>11.51</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>17.373000000000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>11.08</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>11.5</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>18.036799999999999</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>11.08</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>11.5</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>17.412700000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>11.16</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>11.5</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>16.917000000000002</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>11.22</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>11.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>16.7303</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>11.16</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>11.5</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>17.1358</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>11.32</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>11.54</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>17.741800000000001</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>11.29</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>11.53</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>17.997499999999999</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>11.23</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>11.34</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>18.041499999999999</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>10.92</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>11.1</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>18.344799999999999</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <v>10.61</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>10.78</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>18.793700000000001</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="16">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="17">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17">
         <v>2022</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>10.53</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>19.471499999999999</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>9.42</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>10</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>19.3965</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>8.93</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>9.56</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>19.8245</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>8.89</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>20.092500000000001</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <v>8.25</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>8.5</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>20.0962</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>7.76</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>20.348500000000001</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>7.31</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>7.42</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>20.133500000000002</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>6.91</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>7.01</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>19.693999999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>6.56</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>6.73</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>20.372800000000002</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>6.31</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>6.33</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>19.911200000000001</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <v>5.87</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>6.02</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>20.425699999999999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <v>5.53</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>5.72</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>20.635200000000001</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="16">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="11">
         <v>2021</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <v>5.29</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>5.44</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>20.467199999999998</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>5.05</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>5.13</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>21.4453</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>4.84</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>20.529699999999998</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>4.55</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>4.75</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>20.5623</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>4.46</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>20.060500000000001</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>4.32</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>19.845500000000001</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>4.32</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>19.906199999999998</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>4.29</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>19.921299999999999</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>4.07</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>4.28</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>20.182200000000002</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>4.05</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>4.28</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>20.440000000000001</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>4.12</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>20.939</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <v>4.22</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>4.47</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>20.224799999999998</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="16">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="11">
         <v>2020</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>4.49</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>19.9087</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>4.5</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>20.139800000000001</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <v>4.2</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>4.53</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>21.250800000000002</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>4.38</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>4.72</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>22.143799999999999</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <v>4.49</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>4.97</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>21.888000000000002</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>4.82</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>5.23</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>22.2012</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>5.65</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>23.089300000000001</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>5.47</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>6</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>22.177800000000001</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>6.09</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>6.54</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>23.9283</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>6.81</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>7.1</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>23.4847</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>6.96</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>7.39</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>19.776</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <v>7.12</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>7.53</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>18.908200000000001</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="16">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="11">
         <v>2019</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <v>7.12</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>7.7</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>18.8642</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>7.47</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>7.87</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>19.5352</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="11">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <v>7.66</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>8</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>19.194800000000001</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>7.72</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>19.734500000000001</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>8.01</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>20.069600000000001</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>8.14</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>8.48</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>18.992899999999999</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>8.25</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>8.51</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>19.2087</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>8.07</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>8.51</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>19.642600000000002</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>7.78</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>8.5</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>19.009899999999998</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>8.02</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>8.52</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>19.3779</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <v>7.93</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>8.56</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>19.2607</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <v>7.95</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>8.59</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>19.038799999999998</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="16">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="11">
         <v>2018</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <v>8.02</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>8.41</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>19.651199999999999</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>7.83</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>8.25</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>20.345500000000001</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>7.69</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>20.317699999999999</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>7.69</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>8.11</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>18.723099999999999</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <v>7.73</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>8.11</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>19.179200000000002</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>7.73</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>8.1</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>18.645700000000001</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>7.64</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>7.93</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>19.691199999999998</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>7.51</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>7.85</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>19.975899999999999</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>7.46</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>7.84</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>18.787800000000001</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>22.6966</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="9">
-        <v>7.47</v>
-      </c>
-      <c r="E85" s="9">
-        <v>7.78</v>
-      </c>
-      <c r="F85" s="10">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G85" s="10">
-        <v>22.56456</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="E86" s="12">
+      <c r="C86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="9">
+        <v>7.47</v>
+      </c>
+      <c r="E86" s="9">
         <v>7.78</v>
       </c>
-      <c r="F86" s="13">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G86" s="13">
-        <v>22.973559999999999</v>
+      <c r="F86" s="10">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G86" s="10">
+        <v>22.56456</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2468,36 +2468,46 @@
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="9">
-        <v>7.25</v>
-      </c>
-      <c r="E87" s="9">
-        <v>7.64</v>
-      </c>
-      <c r="F87" s="10">
-        <v>18.6069</v>
-      </c>
-      <c r="G87" s="10">
-        <v>23.18234</v>
+      <c r="C87" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="E87" s="12">
+        <v>7.78</v>
+      </c>
+      <c r="F87" s="13">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G87" s="13">
+        <v>22.973559999999999</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="E88" s="9">
+        <v>7.64</v>
+      </c>
+      <c r="F88" s="10">
+        <v>18.6069</v>
+      </c>
+      <c r="G88" s="10">
+        <v>23.18234</v>
+      </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="3" t="s">
@@ -2506,19 +2516,19 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="19"/>
@@ -2527,33 +2537,43 @@
       <c r="G90" s="19"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="2"/>
+      <c r="B92" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DD3BA-4EC4-4125-8F74-18709DFF91D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97708E-2F09-4F09-94BD-125DDCE6F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -261,12 +261,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -321,6 +332,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -417,13 +435,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -450,6 +461,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -501,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G88" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B4:G89" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -744,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -821,1724 +839,1734 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+      <c r="B5" s="22">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="23">
+        <v>9.86</v>
+      </c>
+      <c r="E5" s="23">
+        <v>10.28</v>
+      </c>
+      <c r="F5" s="24">
+        <v>20.6068</v>
+      </c>
+      <c r="G5" s="24">
+        <v>21.420770000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="12">
         <v>9.85</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="12">
         <v>10.38</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="13">
         <v>20.786200000000001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
         <v>21.523070000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>10.050000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>10.61</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>20.321200000000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>10.24</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>10.74</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>20.037800000000001</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>10.44</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>10.95</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>19.643999999999998</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>10.76</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>11.08</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>19.653500000000001</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>10.92</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>11.25</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>18.597000000000001</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>10.97</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>11.24</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>18.247800000000002</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>10.99</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>11.24</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>17.017700000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>10.97</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>11.25</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>17.095800000000001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>11.02</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>11.44</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>16.532299999999999</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>11.05</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>11.5</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>17.063300000000002</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <v>11.29</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>11.5</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>17.1633</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>11.21</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>11.5</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>16.919</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="18">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>10.89</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>11.51</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>17.373000000000001</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>11.08</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>11.5</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>18.036799999999999</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>11.08</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>11.5</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>17.412700000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>11.16</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>11.5</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>16.917000000000002</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>11.22</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>11.5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>16.7303</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>11.16</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>11.5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>17.1358</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>11.32</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>11.54</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>17.741800000000001</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>11.29</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>11.53</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>17.997499999999999</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>11.23</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>11.34</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>18.041499999999999</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <v>10.92</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>11.1</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>18.344799999999999</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <v>10.61</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>10.78</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>18.793700000000001</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="17">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>10.53</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>19.471499999999999</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>9.42</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>10</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>19.3965</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>8.93</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>9.56</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>19.8245</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>8.89</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>20.092500000000001</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <v>8.25</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>8.5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>20.0962</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>7.76</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>20.348500000000001</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>7.31</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>7.42</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>20.133500000000002</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>6.91</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>7.01</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>19.693999999999999</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>6.56</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>6.73</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>20.372800000000002</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>6.31</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>6.33</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>19.911200000000001</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <v>5.87</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>6.02</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>20.425699999999999</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <v>5.53</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>5.72</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>20.635200000000001</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="11">
         <v>2021</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <v>5.29</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>5.44</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>20.467199999999998</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>5.05</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>5.13</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>21.4453</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>4.84</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>20.529699999999998</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>4.55</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>4.75</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>20.5623</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>4.46</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>20.060500000000001</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>4.32</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>19.845500000000001</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>4.32</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>19.906199999999998</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>4.29</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>19.921299999999999</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>4.07</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>4.28</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>20.182200000000002</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>4.05</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>4.28</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>20.440000000000001</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <v>4.12</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>20.939</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <v>4.22</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>4.47</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>20.224799999999998</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="11">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="11">
         <v>2020</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>4.49</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>19.9087</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>4.5</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>20.139800000000001</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>4.2</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>4.53</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>21.250800000000002</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>4.38</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>4.72</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>22.143799999999999</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <v>4.49</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>4.97</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>21.888000000000002</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>4.82</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>5.23</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>22.2012</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>5.65</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>23.089300000000001</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>5.47</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>6</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>22.177800000000001</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>6.09</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>6.54</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>23.9283</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>6.81</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>7.1</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>23.4847</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <v>6.96</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>7.39</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>19.776</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <v>7.12</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>7.53</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>18.908200000000001</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="11">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="11">
         <v>2019</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <v>7.12</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>7.7</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>18.8642</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>7.47</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>7.87</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>19.5352</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>7.66</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>8</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>19.194800000000001</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>7.72</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>19.734500000000001</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <v>8.01</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>20.069600000000001</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>8.14</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>8.48</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>18.992899999999999</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>8.25</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>8.51</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>19.2087</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>8.07</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>8.51</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>19.642600000000002</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <v>7.78</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>8.5</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>19.009899999999998</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>8.02</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>8.52</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>19.3779</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <v>7.93</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>8.56</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>19.2607</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <v>7.95</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>8.59</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>19.038799999999998</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="11">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <v>8.02</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>8.41</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>19.651199999999999</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>7.83</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>8.25</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>20.345500000000001</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>7.69</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>20.317699999999999</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>7.69</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>8.11</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>18.723099999999999</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>7.73</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>8.11</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>19.179200000000002</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>7.73</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>8.1</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>18.645700000000001</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>7.64</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>7.93</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>19.691199999999998</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>7.51</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>7.85</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>19.975899999999999</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>7.46</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>7.84</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>18.787800000000001</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>22.6966</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="9">
-        <v>7.47</v>
-      </c>
-      <c r="E86" s="9">
-        <v>7.78</v>
-      </c>
-      <c r="F86" s="10">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G86" s="10">
-        <v>22.56456</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="E87" s="12">
+      <c r="C87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="9">
+        <v>7.47</v>
+      </c>
+      <c r="E87" s="9">
         <v>7.78</v>
       </c>
-      <c r="F87" s="13">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G87" s="13">
-        <v>22.973559999999999</v>
+      <c r="F87" s="10">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G87" s="10">
+        <v>22.56456</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
+      <c r="J87" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="9">
-        <v>7.25</v>
-      </c>
-      <c r="E88" s="9">
-        <v>7.64</v>
-      </c>
-      <c r="F88" s="10">
-        <v>18.6069</v>
-      </c>
-      <c r="G88" s="10">
-        <v>23.18234</v>
+      <c r="C88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="E88" s="12">
+        <v>7.78</v>
+      </c>
+      <c r="F88" s="13">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G88" s="13">
+        <v>22.973559999999999</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-      <c r="J88" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+    </row>
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="E89" s="9">
+        <v>7.64</v>
+      </c>
+      <c r="F89" s="10">
+        <v>18.6069</v>
+      </c>
+      <c r="G89" s="10">
+        <v>23.18234</v>
+      </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="19"/>
@@ -2547,33 +2575,43 @@
       <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="2"/>
+      <c r="B93" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.45">
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97708E-2F09-4F09-94BD-125DDCE6F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB1DE5-1EAC-4EA3-BE2A-E4C76DC331F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,43 +196,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -262,14 +227,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -277,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,15 +269,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -312,33 +286,32 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -435,6 +408,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -461,13 +441,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -519,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B4:G89" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G90" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -768,7 +741,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="3" customWidth="1"/>
@@ -784,7 +757,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,7 +775,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -818,352 +791,352 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:15" s="4" customFormat="1">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="22">
+    <row r="5" spans="2:15" s="4" customFormat="1">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20.507999999999999</v>
+      </c>
+      <c r="G5" s="10">
+        <v>21.330369999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D6" s="12">
         <v>9.86</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E6" s="12">
         <v>10.28</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="13">
         <v>20.6068</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G6" s="13">
         <v>21.420770000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9.85</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10.38</v>
-      </c>
-      <c r="F6" s="13">
-        <v>20.786200000000001</v>
-      </c>
-      <c r="G6" s="13">
-        <v>21.523070000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" s="4" customFormat="1">
       <c r="B7" s="8">
         <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10.38</v>
+      </c>
+      <c r="F7" s="10">
+        <v>20.786200000000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>21.523070000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="6">
         <v>10.61</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="7">
         <v>20.321200000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="7">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="12">
-        <v>10.24</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10.74</v>
-      </c>
-      <c r="F8" s="13">
-        <v>20.037800000000001</v>
-      </c>
-      <c r="G8" s="13">
-        <v>21.778079999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" s="4" customFormat="1">
       <c r="B9" s="8">
         <v>2024</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10.24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10.74</v>
+      </c>
+      <c r="F9" s="10">
+        <v>20.037800000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>21.778079999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="B10" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="6">
         <v>10.44</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="6">
         <v>10.95</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="7">
         <v>19.643999999999998</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="7">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12">
-        <v>10.76</v>
-      </c>
-      <c r="E10" s="12">
-        <v>11.08</v>
-      </c>
-      <c r="F10" s="13">
-        <v>19.653500000000001</v>
-      </c>
-      <c r="G10" s="13">
-        <v>21.760359999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" ht="18" customHeight="1">
       <c r="B11" s="8">
         <v>2024</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10.76</v>
+      </c>
+      <c r="E11" s="9">
+        <v>11.08</v>
+      </c>
+      <c r="F11" s="10">
+        <v>19.653500000000001</v>
+      </c>
+      <c r="G11" s="10">
+        <v>21.760359999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="6">
         <v>10.92</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="6">
         <v>11.25</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="7">
         <v>18.597000000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="7">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10.97</v>
-      </c>
-      <c r="E12" s="12">
-        <v>11.24</v>
-      </c>
-      <c r="F12" s="13">
-        <v>18.247800000000002</v>
-      </c>
-      <c r="G12" s="13">
-        <v>19.55799</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15">
       <c r="B13" s="8">
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9">
-        <v>10.99</v>
+        <v>10.97</v>
       </c>
       <c r="E13" s="9">
         <v>11.24</v>
       </c>
       <c r="F13" s="10">
+        <v>18.247800000000002</v>
+      </c>
+      <c r="G13" s="10">
+        <v>19.55799</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10.99</v>
+      </c>
+      <c r="E14" s="6">
+        <v>11.24</v>
+      </c>
+      <c r="F14" s="7">
         <v>17.017700000000001</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="7">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="12">
-        <v>10.97</v>
-      </c>
-      <c r="E14" s="12">
-        <v>11.25</v>
-      </c>
-      <c r="F14" s="13">
-        <v>17.095800000000001</v>
-      </c>
-      <c r="G14" s="13">
-        <v>18.275410000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15">
       <c r="B15" s="8">
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10.97</v>
+      </c>
+      <c r="E15" s="9">
+        <v>11.25</v>
+      </c>
+      <c r="F15" s="10">
+        <v>17.095800000000001</v>
+      </c>
+      <c r="G15" s="10">
+        <v>18.275410000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="6">
         <v>11.02</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="6">
         <v>11.44</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="7">
         <v>16.532299999999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="7">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="9">
         <v>11.05</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="9">
         <v>11.5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="10">
         <v>17.063300000000002</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="10">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:7">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="12">
         <v>11.29</v>
-      </c>
-      <c r="E17" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>17.1633</v>
-      </c>
-      <c r="G17" s="16">
-        <v>18.64106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12">
-        <v>11.21</v>
       </c>
       <c r="E18" s="12">
         <v>11.5</v>
       </c>
       <c r="F18" s="13">
+        <v>17.1633</v>
+      </c>
+      <c r="G18" s="13">
+        <v>18.64106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" hidden="1">
+      <c r="B19" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
+        <v>11.21</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="F19" s="10">
         <v>16.919</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="15">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="5">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="6">
         <v>10.89</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="6">
         <v>11.51</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="7">
         <v>17.373000000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="7">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12">
-        <v>11.08</v>
-      </c>
-      <c r="E20" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="F20" s="13">
-        <v>18.036799999999999</v>
-      </c>
-      <c r="G20" s="13">
-        <v>19.120809999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" hidden="1">
       <c r="B21" s="8">
         <v>2023</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9">
         <v>11.08</v>
@@ -1172,1446 +1145,1457 @@
         <v>11.5</v>
       </c>
       <c r="F21" s="10">
+        <v>18.036799999999999</v>
+      </c>
+      <c r="G21" s="10">
+        <v>19.120809999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
+        <v>11.08</v>
+      </c>
+      <c r="E22" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F22" s="7">
         <v>17.412700000000001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="7">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12">
-        <v>11.16</v>
-      </c>
-      <c r="E22" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="F22" s="13">
-        <v>16.917000000000002</v>
-      </c>
-      <c r="G22" s="13">
-        <v>18.358329999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" hidden="1">
       <c r="B23" s="8">
         <v>2023</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="9">
-        <v>11.22</v>
+        <v>11.16</v>
       </c>
       <c r="E23" s="9">
         <v>11.5</v>
       </c>
       <c r="F23" s="10">
+        <v>16.917000000000002</v>
+      </c>
+      <c r="G23" s="10">
+        <v>18.358329999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11.22</v>
+      </c>
+      <c r="E24" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F24" s="7">
         <v>16.7303</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="7">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="12">
-        <v>11.16</v>
-      </c>
-      <c r="E24" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="F24" s="13">
-        <v>17.1358</v>
-      </c>
-      <c r="G24" s="13">
-        <v>18.69773</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" hidden="1">
       <c r="B25" s="8">
         <v>2023</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11.16</v>
+      </c>
+      <c r="E25" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>17.1358</v>
+      </c>
+      <c r="G25" s="10">
+        <v>18.69773</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="6">
         <v>11.32</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="6">
         <v>11.54</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="7">
         <v>17.741800000000001</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="7">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12">
-        <v>11.29</v>
-      </c>
-      <c r="E26" s="12">
-        <v>11.53</v>
-      </c>
-      <c r="F26" s="13">
-        <v>17.997499999999999</v>
-      </c>
-      <c r="G26" s="13">
-        <v>19.862939999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" hidden="1">
       <c r="B27" s="8">
         <v>2023</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9">
+        <v>11.29</v>
+      </c>
+      <c r="E27" s="9">
+        <v>11.53</v>
+      </c>
+      <c r="F27" s="10">
+        <v>17.997499999999999</v>
+      </c>
+      <c r="G27" s="10">
+        <v>19.862939999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="6">
         <v>11.23</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="6">
         <v>11.34</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="7">
         <v>18.041499999999999</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="7">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="9">
         <v>10.92</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="9">
         <v>11.1</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="12">
         <v>10.61</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="12">
         <v>10.78</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="9">
         <v>10.53</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="10">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="6">
         <v>9.42</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="6">
         <v>10</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="7">
         <v>19.3965</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="7">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="12">
-        <v>8.93</v>
-      </c>
-      <c r="E32" s="12">
-        <v>9.56</v>
-      </c>
-      <c r="F32" s="13">
-        <v>19.8245</v>
-      </c>
-      <c r="G32" s="13">
-        <v>19.603459999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" hidden="1">
       <c r="B33" s="8">
         <v>2022</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8.93</v>
+      </c>
+      <c r="E33" s="9">
+        <v>9.56</v>
+      </c>
+      <c r="F33" s="10">
+        <v>19.8245</v>
+      </c>
+      <c r="G33" s="10">
+        <v>19.603459999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="6">
         <v>8.89</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="7">
         <v>20.092500000000001</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="7">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="12">
-        <v>8.25</v>
-      </c>
-      <c r="E34" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="F34" s="13">
-        <v>20.0962</v>
-      </c>
-      <c r="G34" s="13">
-        <v>20.208739999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" hidden="1">
       <c r="B35" s="8">
         <v>2022</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="E35" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>20.0962</v>
+      </c>
+      <c r="G35" s="10">
+        <v>20.208739999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="6">
         <v>7.76</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="7">
         <v>20.348500000000001</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="7">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="12">
-        <v>7.31</v>
-      </c>
-      <c r="E36" s="12">
-        <v>7.42</v>
-      </c>
-      <c r="F36" s="13">
-        <v>20.133500000000002</v>
-      </c>
-      <c r="G36" s="13">
-        <v>21.047560000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" hidden="1">
       <c r="B37" s="8">
         <v>2022</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="9">
+        <v>7.31</v>
+      </c>
+      <c r="E37" s="9">
+        <v>7.42</v>
+      </c>
+      <c r="F37" s="10">
+        <v>20.133500000000002</v>
+      </c>
+      <c r="G37" s="10">
+        <v>21.047560000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="6">
         <v>6.91</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="6">
         <v>7.01</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="7">
         <v>19.693999999999999</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="7">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="12">
-        <v>6.56</v>
-      </c>
-      <c r="E38" s="12">
-        <v>6.73</v>
-      </c>
-      <c r="F38" s="13">
-        <v>20.372800000000002</v>
-      </c>
-      <c r="G38" s="13">
-        <v>21.49127</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" hidden="1">
       <c r="B39" s="8">
         <v>2022</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="E39" s="9">
+        <v>6.73</v>
+      </c>
+      <c r="F39" s="10">
+        <v>20.372800000000002</v>
+      </c>
+      <c r="G39" s="10">
+        <v>21.49127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="6">
         <v>6.31</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="6">
         <v>6.33</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="7">
         <v>19.911200000000001</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="7">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="9">
         <v>5.87</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="9">
         <v>6.02</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="10">
         <v>20.425699999999999</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="10">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="12">
         <v>5.53</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="12">
         <v>5.72</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="12">
-        <v>5.29</v>
-      </c>
-      <c r="E42" s="12">
-        <v>5.44</v>
-      </c>
-      <c r="F42" s="13">
-        <v>20.467199999999998</v>
-      </c>
-      <c r="G42" s="13">
-        <v>23.276319999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" hidden="1">
       <c r="B43" s="8">
         <v>2021</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="9">
+        <v>5.29</v>
+      </c>
+      <c r="E43" s="9">
+        <v>5.44</v>
+      </c>
+      <c r="F43" s="10">
+        <v>20.467199999999998</v>
+      </c>
+      <c r="G43" s="10">
+        <v>23.276319999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="6">
         <v>5.05</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="6">
         <v>5.13</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="7">
         <v>21.4453</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="7">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="12">
-        <v>4.84</v>
-      </c>
-      <c r="E44" s="12">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="F44" s="13">
-        <v>20.529699999999998</v>
-      </c>
-      <c r="G44" s="13">
-        <v>23.757999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" hidden="1">
       <c r="B45" s="8">
         <v>2021</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="E45" s="9">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F45" s="10">
+        <v>20.529699999999998</v>
+      </c>
+      <c r="G45" s="10">
+        <v>23.757999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="6">
         <v>4.55</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="6">
         <v>4.75</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="7">
         <v>20.5623</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="7">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="12">
-        <v>4.46</v>
-      </c>
-      <c r="E46" s="12">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F46" s="13">
-        <v>20.060500000000001</v>
-      </c>
-      <c r="G46" s="13">
-        <v>23.680420000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:7" hidden="1">
       <c r="B47" s="8">
         <v>2021</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4.46</v>
+      </c>
+      <c r="E47" s="9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F47" s="10">
+        <v>20.060500000000001</v>
+      </c>
+      <c r="G47" s="10">
+        <v>23.680420000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="6">
         <v>4.32</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="7">
         <v>19.845500000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="7">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="12">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E48" s="12">
-        <v>4.32</v>
-      </c>
-      <c r="F48" s="13">
-        <v>19.906199999999998</v>
-      </c>
-      <c r="G48" s="13">
-        <v>23.60079</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" hidden="1">
       <c r="B49" s="8">
         <v>2021</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E49" s="9">
+        <v>4.32</v>
+      </c>
+      <c r="F49" s="10">
+        <v>19.906199999999998</v>
+      </c>
+      <c r="G49" s="10">
+        <v>23.60079</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="6">
         <v>4.29</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="7">
         <v>19.921299999999999</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="7">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="12">
-        <v>4.07</v>
-      </c>
-      <c r="E50" s="12">
-        <v>4.28</v>
-      </c>
-      <c r="F50" s="13">
-        <v>20.182200000000002</v>
-      </c>
-      <c r="G50" s="13">
-        <v>24.300380000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" hidden="1">
       <c r="B51" s="8">
         <v>2021</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="9">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E51" s="9">
         <v>4.28</v>
       </c>
       <c r="F51" s="10">
+        <v>20.182200000000002</v>
+      </c>
+      <c r="G51" s="10">
+        <v>24.300380000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="F52" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="7">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="9">
         <v>4.12</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="10">
         <v>20.939</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="10">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="12">
         <v>4.22</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="12">
         <v>4.47</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="12">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E54" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F54" s="13">
-        <v>19.9087</v>
-      </c>
-      <c r="G54" s="13">
-        <v>24.356300000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" hidden="1">
       <c r="B55" s="8">
         <v>2020</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E55" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F55" s="10">
+        <v>19.9087</v>
+      </c>
+      <c r="G55" s="10">
+        <v>24.356300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="6">
         <v>4.5</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="7">
         <v>20.139800000000001</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="7">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="E56" s="12">
-        <v>4.53</v>
-      </c>
-      <c r="F56" s="13">
-        <v>21.250800000000002</v>
-      </c>
-      <c r="G56" s="13">
-        <v>24.81775</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" hidden="1">
       <c r="B57" s="8">
         <v>2020</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4.53</v>
+      </c>
+      <c r="F57" s="10">
+        <v>21.250800000000002</v>
+      </c>
+      <c r="G57" s="10">
+        <v>24.81775</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="6">
         <v>4.38</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="6">
         <v>4.72</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="7">
         <v>22.143799999999999</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="7">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="E58" s="12">
-        <v>4.97</v>
-      </c>
-      <c r="F58" s="13">
-        <v>21.888000000000002</v>
-      </c>
-      <c r="G58" s="13">
-        <v>26.17914</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" hidden="1">
       <c r="B59" s="8">
         <v>2020</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="E59" s="9">
+        <v>4.97</v>
+      </c>
+      <c r="F59" s="10">
+        <v>21.888000000000002</v>
+      </c>
+      <c r="G59" s="10">
+        <v>26.17914</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="6">
         <v>4.82</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="6">
         <v>5.23</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="7">
         <v>22.2012</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="7">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="12">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="E60" s="12">
-        <v>5.65</v>
-      </c>
-      <c r="F60" s="13">
-        <v>23.089300000000001</v>
-      </c>
-      <c r="G60" s="13">
-        <v>25.925820000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" hidden="1">
       <c r="B61" s="8">
         <v>2020</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E61" s="9">
+        <v>5.65</v>
+      </c>
+      <c r="F61" s="10">
+        <v>23.089300000000001</v>
+      </c>
+      <c r="G61" s="10">
+        <v>25.925820000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="6">
         <v>5.47</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="6">
         <v>6</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="7">
         <v>22.177800000000001</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="7">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="12">
-        <v>6.09</v>
-      </c>
-      <c r="E62" s="12">
-        <v>6.54</v>
-      </c>
-      <c r="F62" s="13">
-        <v>23.9283</v>
-      </c>
-      <c r="G62" s="13">
-        <v>26.1967</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:7" hidden="1">
       <c r="B63" s="8">
         <v>2020</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="9">
+        <v>6.09</v>
+      </c>
+      <c r="E63" s="9">
+        <v>6.54</v>
+      </c>
+      <c r="F63" s="10">
+        <v>23.9283</v>
+      </c>
+      <c r="G63" s="10">
+        <v>26.1967</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="6">
         <v>6.81</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="6">
         <v>7.1</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="7">
         <v>23.4847</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="7">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="9">
         <v>6.96</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="9">
         <v>7.39</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="10">
         <v>19.776</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="10">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D65" s="15">
-        <v>7.12</v>
-      </c>
-      <c r="E65" s="15">
-        <v>7.53</v>
-      </c>
-      <c r="F65" s="16">
-        <v>18.908200000000001</v>
-      </c>
-      <c r="G65" s="16">
-        <v>20.9465</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D66" s="12">
         <v>7.12</v>
       </c>
       <c r="E66" s="12">
-        <v>7.7</v>
+        <v>7.53</v>
       </c>
       <c r="F66" s="13">
-        <v>18.8642</v>
+        <v>18.908200000000001</v>
       </c>
       <c r="G66" s="13">
-        <v>21.175059999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+        <v>20.9465</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" hidden="1">
       <c r="B67" s="8">
         <v>2019</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="9">
+        <v>7.12</v>
+      </c>
+      <c r="E67" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="F67" s="10">
+        <v>18.8642</v>
+      </c>
+      <c r="G67" s="10">
+        <v>21.175059999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="6">
         <v>7.47</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="6">
         <v>7.87</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="7">
         <v>19.5352</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="7">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="12">
-        <v>7.66</v>
-      </c>
-      <c r="E68" s="12">
-        <v>8</v>
-      </c>
-      <c r="F68" s="13">
-        <v>19.194800000000001</v>
-      </c>
-      <c r="G68" s="13">
-        <v>21.383970000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:7" hidden="1">
       <c r="B69" s="8">
         <v>2019</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="9">
+        <v>7.66</v>
+      </c>
+      <c r="E69" s="9">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10">
+        <v>19.194800000000001</v>
+      </c>
+      <c r="G69" s="10">
+        <v>21.383970000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="6">
         <v>7.72</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="7">
         <v>19.734500000000001</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="7">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="12">
-        <v>8.01</v>
-      </c>
-      <c r="E70" s="12">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="F70" s="13">
-        <v>20.069600000000001</v>
-      </c>
-      <c r="G70" s="13">
-        <v>22.107669999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" hidden="1">
       <c r="B71" s="8">
         <v>2019</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="9">
+        <v>8.01</v>
+      </c>
+      <c r="E71" s="9">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F71" s="10">
+        <v>20.069600000000001</v>
+      </c>
+      <c r="G71" s="10">
+        <v>22.107669999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="6">
         <v>8.14</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="6">
         <v>8.48</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="7">
         <v>18.992899999999999</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="7">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="12">
-        <v>8.25</v>
-      </c>
-      <c r="E72" s="12">
-        <v>8.51</v>
-      </c>
-      <c r="F72" s="13">
-        <v>19.2087</v>
-      </c>
-      <c r="G72" s="13">
-        <v>21.87199</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" hidden="1">
       <c r="B73" s="8">
         <v>2019</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="9">
-        <v>8.07</v>
+        <v>8.25</v>
       </c>
       <c r="E73" s="9">
         <v>8.51</v>
       </c>
       <c r="F73" s="10">
+        <v>19.2087</v>
+      </c>
+      <c r="G73" s="10">
+        <v>21.87199</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6">
+        <v>8.07</v>
+      </c>
+      <c r="E74" s="6">
+        <v>8.51</v>
+      </c>
+      <c r="F74" s="7">
         <v>19.642600000000002</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="7">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="12">
-        <v>7.78</v>
-      </c>
-      <c r="E74" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="F74" s="13">
-        <v>19.009899999999998</v>
-      </c>
-      <c r="G74" s="13">
-        <v>21.30725</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7" hidden="1">
       <c r="B75" s="8">
         <v>2019</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="E75" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="F75" s="10">
+        <v>19.009899999999998</v>
+      </c>
+      <c r="G75" s="10">
+        <v>21.30725</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="6">
         <v>8.02</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="6">
         <v>8.52</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="7">
         <v>19.3779</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="7">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="9">
         <v>7.93</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="9">
         <v>8.56</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="10">
         <v>19.2607</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="10">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="14">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="12">
         <v>7.95</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="12">
         <v>8.59</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="12">
-        <v>8.02</v>
-      </c>
-      <c r="E78" s="12">
-        <v>8.41</v>
-      </c>
-      <c r="F78" s="13">
-        <v>19.651199999999999</v>
-      </c>
-      <c r="G78" s="13">
-        <v>22.469180000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" hidden="1">
       <c r="B79" s="8">
         <v>2018</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="9">
+        <v>8.02</v>
+      </c>
+      <c r="E79" s="9">
+        <v>8.41</v>
+      </c>
+      <c r="F79" s="10">
+        <v>19.651199999999999</v>
+      </c>
+      <c r="G79" s="10">
+        <v>22.469180000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="6">
         <v>7.83</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="6">
         <v>8.25</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="7">
         <v>20.345500000000001</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="7">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="12">
-        <v>7.69</v>
-      </c>
-      <c r="E80" s="12">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F80" s="13">
-        <v>20.317699999999999</v>
-      </c>
-      <c r="G80" s="13">
-        <v>22.997599999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:10" hidden="1">
       <c r="B81" s="8">
         <v>2018</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" s="9">
         <v>7.69</v>
       </c>
       <c r="E81" s="9">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F81" s="10">
+        <v>20.317699999999999</v>
+      </c>
+      <c r="G81" s="10">
+        <v>22.997599999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="E82" s="6">
         <v>8.11</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="7">
         <v>18.723099999999999</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="7">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="12">
-        <v>7.73</v>
-      </c>
-      <c r="E82" s="12">
-        <v>8.11</v>
-      </c>
-      <c r="F82" s="13">
-        <v>19.179200000000002</v>
-      </c>
-      <c r="G82" s="13">
-        <v>22.317879999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:10" hidden="1">
       <c r="B83" s="8">
         <v>2018</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="9">
         <v>7.73</v>
       </c>
       <c r="E83" s="9">
+        <v>8.11</v>
+      </c>
+      <c r="F83" s="10">
+        <v>19.179200000000002</v>
+      </c>
+      <c r="G83" s="10">
+        <v>22.317879999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="6">
+        <v>7.73</v>
+      </c>
+      <c r="E84" s="6">
         <v>8.1</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="7">
         <v>18.645700000000001</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="7">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="12">
-        <v>7.64</v>
-      </c>
-      <c r="E84" s="12">
-        <v>7.93</v>
-      </c>
-      <c r="F84" s="13">
-        <v>19.691199999999998</v>
-      </c>
-      <c r="G84" s="13">
-        <v>22.988489999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:10" hidden="1">
       <c r="B85" s="8">
         <v>2018</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="9">
+        <v>7.64</v>
+      </c>
+      <c r="E85" s="9">
+        <v>7.93</v>
+      </c>
+      <c r="F85" s="10">
+        <v>19.691199999999998</v>
+      </c>
+      <c r="G85" s="10">
+        <v>22.988489999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="6">
         <v>7.51</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="6">
         <v>7.85</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="7">
         <v>19.975899999999999</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="7">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="12">
-        <v>7.46</v>
-      </c>
-      <c r="E86" s="12">
-        <v>7.84</v>
-      </c>
-      <c r="F86" s="13">
-        <v>18.787800000000001</v>
-      </c>
-      <c r="G86" s="13">
-        <v>22.6966</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:10" hidden="1">
       <c r="B87" s="8">
         <v>2018</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="9">
+        <v>7.46</v>
+      </c>
+      <c r="E87" s="9">
+        <v>7.84</v>
+      </c>
+      <c r="F87" s="10">
+        <v>18.787800000000001</v>
+      </c>
+      <c r="G87" s="10">
+        <v>22.6966</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="6">
         <v>7.47</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="6">
         <v>7.78</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="7">
         <v>18.270900000000001</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="7">
         <v>22.56456</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="3" t="s">
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="E88" s="12">
-        <v>7.78</v>
-      </c>
-      <c r="F88" s="13">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G88" s="13">
-        <v>22.973559999999999</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:10" hidden="1">
       <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E89" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F89" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G89" s="10">
+        <v>22.973559999999999</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="6">
         <v>7.25</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="6">
         <v>7.64</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="7">
         <v>18.6069</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="7">
         <v>23.18234</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="3" t="s">
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="2:10">
+      <c r="B91" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB1DE5-1EAC-4EA3-BE2A-E4C76DC331F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363FDF2-5539-4D2D-8AEE-54799934B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G90" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G91" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -812,1752 +812,1762 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9.74</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20.437999999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>22.073039999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>20.507999999999999</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>21.330369999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="11">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>9.86</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>10.28</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>20.6068</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>21.420770000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>9.85</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>10.38</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>20.786200000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>21.523070000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="5">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="5">
         <v>2024</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>10.61</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>20.321200000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>10.24</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>10.74</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>20.037800000000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1">
-      <c r="B10" s="5">
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="5">
         <v>2024</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>10.44</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>10.95</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>19.643999999999998</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>10.76</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>11.08</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>19.653500000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="5">
+    <row r="13" spans="2:15">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>10.92</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>11.25</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>18.597000000000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>10.97</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>11.24</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>18.247800000000002</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="5">
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>10.99</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>11.24</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>17.017700000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>10.97</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>11.25</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>17.095800000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="5">
+    <row r="17" spans="2:7">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>11.02</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>11.44</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>16.532299999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>11.05</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>11.5</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>17.063300000000002</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="11">
+    <row r="19" spans="2:7">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>11.29</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>11.5</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>17.1633</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1">
-      <c r="B19" s="14">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>11.21</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>11.5</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>16.919</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="5">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="5">
         <v>2023</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>10.89</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>11.51</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>17.373000000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>11.08</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>11.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>18.036799999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="5">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="5">
         <v>2023</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>11.08</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>11.5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>17.412700000000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>11.16</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>11.5</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>16.917000000000002</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>11.22</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>11.5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>16.7303</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>11.16</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>11.5</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>17.1358</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>11.32</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>11.54</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>17.741800000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>11.29</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>11.53</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>17.997499999999999</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>11.23</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>11.34</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>18.041499999999999</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>10.92</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>11.1</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>10.61</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>10.78</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>10.53</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2022</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>9.42</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>10</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>19.3965</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>8.93</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>9.56</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>19.8245</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="5">
         <v>2022</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>8.89</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>20.092500000000001</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>8.25</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>8.5</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>20.0962</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>7.76</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>20.348500000000001</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>7.31</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>7.42</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>20.133500000000002</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>6.91</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>7.01</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>19.693999999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="7">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>6.56</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>6.73</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>20.372800000000002</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>6.31</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>6.33</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>19.911200000000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>5.87</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>6.02</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>20.425699999999999</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>5.53</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>5.72</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>5.29</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>5.44</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>20.467199999999998</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2021</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>5.05</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>5.13</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>21.4453</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>4.84</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>20.529699999999998</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="5">
         <v>2021</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>4.55</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>4.75</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>20.5623</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>4.46</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>20.060500000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>4.32</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>19.845500000000001</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>4.32</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>19.906199999999998</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>4.29</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>19.921299999999999</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="7">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>4.07</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>4.28</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>20.182200000000002</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>4.05</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>4.28</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>4.12</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>20.939</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <v>4.22</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>4.47</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>4.49</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>19.9087</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2020</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>4.5</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>20.139800000000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>4.2</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>4.53</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>21.250800000000002</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="5">
         <v>2020</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>4.38</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>4.72</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>22.143799999999999</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>4.49</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>4.97</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>21.888000000000002</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>4.82</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>5.23</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>22.2012</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>5.65</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>23.089300000000001</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>5.47</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>6</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>22.177800000000001</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="7">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>6.09</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>6.54</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>23.9283</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>6.81</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>7.1</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>23.4847</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>6.96</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>7.39</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>19.776</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <v>7.12</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>7.53</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>18.908200000000001</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>7.12</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>7.7</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>18.8642</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2019</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>7.47</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>7.87</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>19.5352</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>7.66</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>8</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>19.194800000000001</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="5">
         <v>2019</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>7.72</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>19.734500000000001</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="7">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>8.01</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>20.069600000000001</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>8.14</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>8.48</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>18.992899999999999</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>8.25</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>8.51</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>19.2087</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>8.07</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>8.51</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>19.642600000000002</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>7.78</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>8.5</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>19.009899999999998</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>8.02</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>8.52</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>19.3779</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>7.93</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>8.56</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>19.2607</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>7.95</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>8.59</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>8.02</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>8.41</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>19.651199999999999</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2018</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>7.83</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>8.25</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>20.345500000000001</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>7.69</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>20.317699999999999</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="5">
         <v>2018</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>7.69</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>8.11</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>18.723099999999999</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>7.73</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>8.11</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>19.179200000000002</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>7.73</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>8.1</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>18.645700000000001</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>7.64</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>7.93</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>19.691199999999998</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>7.51</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>7.85</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>19.975899999999999</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="7">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>7.46</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>7.84</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>18.787800000000001</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>22.6966</v>
-      </c>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-    </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="E88" s="6">
-        <v>7.78</v>
-      </c>
-      <c r="F88" s="7">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G88" s="7">
-        <v>22.56456</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="8">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E89" s="9">
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="6">
+        <v>7.47</v>
+      </c>
+      <c r="E89" s="6">
         <v>7.78</v>
       </c>
-      <c r="F89" s="10">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G89" s="10">
-        <v>22.973559999999999</v>
+      <c r="F89" s="7">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G89" s="7">
+        <v>22.56456</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="E90" s="6">
-        <v>7.64</v>
-      </c>
-      <c r="F90" s="7">
-        <v>18.6069</v>
-      </c>
-      <c r="G90" s="7">
-        <v>23.18234</v>
+      <c r="C90" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E90" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F90" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G90" s="10">
+        <v>22.973559999999999</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
-      <c r="J90" s="3" t="s">
+    </row>
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E91" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="F91" s="7">
+        <v>18.6069</v>
+      </c>
+      <c r="G91" s="7">
+        <v>23.18234</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="16"/>
@@ -2567,35 +2577,45 @@
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="2:10">
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363FDF2-5539-4D2D-8AEE-54799934B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAFF87-1ACD-4ADC-91BC-294EB7255A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G91" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G92" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O97"/>
+  <dimension ref="B2:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -812,1772 +812,1782 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8.81</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F5" s="10">
+        <v>19.609500000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>22.281289999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>9.1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>9.74</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <v>20.437999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>22.073039999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>20.507999999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>21.330369999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="11">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>9.86</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>10.28</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>20.6068</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>21.420770000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>9.85</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>10.38</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>20.786200000000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>21.523070000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>10.61</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>20.321200000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>10.24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>10.74</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>20.037800000000001</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="5">
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>10.44</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>10.95</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>19.643999999999998</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" ht="18" customHeight="1">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>10.76</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>11.08</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>19.653500000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="5">
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>10.92</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>11.25</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>18.597000000000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>10.97</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>11.24</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>18.247800000000002</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="5">
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>10.99</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>11.24</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>17.017700000000001</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>10.97</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>11.25</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>17.095800000000001</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5">
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>11.02</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>11.44</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>16.532299999999999</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>11.05</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>11.5</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>17.063300000000002</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7">
+      <c r="B20" s="11">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>11.29</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>11.5</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>17.1633</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>11.21</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>11.5</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>16.919</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="5">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>10.89</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>11.51</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>17.373000000000001</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>11.08</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>11.5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>18.036799999999999</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="5">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>11.08</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>11.5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>17.412700000000001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>11.16</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>11.5</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>16.917000000000002</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>11.22</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>11.5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>16.7303</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>11.16</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>11.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>17.1358</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>11.32</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>11.54</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>17.741800000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>11.29</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>11.53</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>17.997499999999999</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>11.23</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>11.34</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>18.041499999999999</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>10.92</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>11.1</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="11">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>10.61</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>10.78</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>10.53</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>9.42</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>10</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>19.3965</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>8.93</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>9.56</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>19.8245</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="5">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>8.89</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>20.092500000000001</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G36" s="7">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>8.25</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>8.5</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>20.0962</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>7.76</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>20.348500000000001</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>7.31</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>7.42</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>20.133500000000002</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>6.91</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>7.01</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>19.693999999999999</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="7">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>6.56</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>6.73</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>20.372800000000002</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>6.31</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>6.33</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>19.911200000000001</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="7">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>5.87</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>6.02</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>20.425699999999999</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="11">
+    <row r="44" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="11">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>5.53</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>5.72</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>5.29</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>5.44</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>20.467199999999998</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>5.05</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>5.13</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>21.4453</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G46" s="7">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>4.84</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>20.529699999999998</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="5">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>4.55</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>4.75</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>20.5623</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G48" s="7">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>4.46</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>20.060500000000001</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>4.32</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>19.845500000000001</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>4.32</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>19.906199999999998</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>4.29</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="7">
         <v>19.921299999999999</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G52" s="7">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>4.07</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>4.28</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>20.182200000000002</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>4.05</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>4.28</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="7">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>4.12</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>20.939</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="11">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>4.22</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>4.47</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>4.49</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>19.9087</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>4.5</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>20.139800000000001</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="7">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>4.2</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>4.53</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>21.250800000000002</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="5">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>4.38</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>4.72</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>22.143799999999999</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G60" s="7">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>4.49</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>4.97</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>21.888000000000002</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>4.82</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>5.23</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>22.2012</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>5.65</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>23.089300000000001</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>5.47</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>6</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>22.177800000000001</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G64" s="7">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>6.09</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>6.54</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>23.9283</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>6.81</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>7.1</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>23.4847</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G66" s="7">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>6.96</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>7.39</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>19.776</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="11">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="11">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>7.12</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>7.53</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>18.908200000000001</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>7.12</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>7.7</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>18.8642</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>7.47</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>7.87</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>19.5352</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="7">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>7.66</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>8</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>19.194800000000001</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="5">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>7.72</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>19.734500000000001</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G72" s="7">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>8.01</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>20.069600000000001</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>8.14</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>8.48</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>18.992899999999999</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>8.25</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>8.51</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>19.2087</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>8.07</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>8.51</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>19.642600000000002</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G76" s="7">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>7.78</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>8.5</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>19.009899999999998</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>8.02</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>8.52</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>19.3779</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G78" s="7">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>7.93</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>8.56</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>19.2607</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="11">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="11">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>7.95</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>8.59</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>8.02</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>8.41</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>19.651199999999999</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>7.83</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>8.25</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>20.345500000000001</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="7">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>7.69</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>20.317699999999999</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="5">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>7.69</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>8.11</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>18.723099999999999</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="7">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>7.73</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>8.11</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>19.179200000000002</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>7.73</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>8.1</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>18.645700000000001</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>7.64</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>7.93</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>19.691199999999998</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>7.51</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>7.85</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="7">
         <v>19.975899999999999</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G88" s="7">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>7.46</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>7.84</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>18.787800000000001</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>22.6966</v>
-      </c>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="E89" s="6">
-        <v>7.78</v>
-      </c>
-      <c r="F89" s="7">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G89" s="7">
-        <v>22.56456</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="8">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E90" s="9">
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="6">
+        <v>7.47</v>
+      </c>
+      <c r="E90" s="6">
         <v>7.78</v>
       </c>
-      <c r="F90" s="10">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G90" s="10">
-        <v>22.973559999999999</v>
+      <c r="F90" s="7">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G90" s="7">
+        <v>22.56456</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
+      <c r="J90" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="E91" s="6">
-        <v>7.64</v>
-      </c>
-      <c r="F91" s="7">
-        <v>18.6069</v>
-      </c>
-      <c r="G91" s="7">
-        <v>23.18234</v>
+      <c r="C91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E91" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F91" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G91" s="10">
+        <v>22.973559999999999</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
-      <c r="J91" s="3" t="s">
+    </row>
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E92" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="F92" s="7">
+        <v>18.6069</v>
+      </c>
+      <c r="G92" s="7">
+        <v>23.18234</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="16"/>
@@ -2587,35 +2597,45 @@
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="5:7">
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAFF87-1ACD-4ADC-91BC-294EB7255A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A15B44-0CCA-4BA8-950B-D622949FE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -241,7 +243,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -252,7 +256,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -407,7 +413,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -492,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G92" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G94" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O98"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -816,19 +822,19 @@
         <v>2025</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9">
-        <v>8.81</v>
+        <v>8.09</v>
       </c>
       <c r="E5" s="9">
-        <v>9.2799999999999994</v>
+        <v>8.74</v>
       </c>
       <c r="F5" s="10">
-        <v>19.609500000000001</v>
+        <v>18.833200000000001</v>
       </c>
       <c r="G5" s="10">
-        <v>22.281289999999998</v>
+        <v>22.098880000000001</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="4" customFormat="1">
@@ -836,19 +842,19 @@
         <v>2025</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
-        <v>9.1</v>
+        <v>8.31</v>
       </c>
       <c r="E6" s="6">
-        <v>9.74</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="F6" s="7">
-        <v>20.437999999999999</v>
+        <v>19.3858</v>
       </c>
       <c r="G6" s="7">
-        <v>22.073039999999999</v>
+        <v>22.002880000000001</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="4" customFormat="1">
@@ -856,79 +862,79 @@
         <v>2025</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9">
-        <v>9.4499999999999993</v>
+        <v>8.81</v>
       </c>
       <c r="E7" s="9">
-        <v>9.8800000000000008</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="F7" s="10">
-        <v>20.507999999999999</v>
+        <v>19.609500000000001</v>
       </c>
       <c r="G7" s="10">
-        <v>21.330369999999998</v>
+        <v>22.281289999999998</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="11">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12">
-        <v>9.86</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10.28</v>
-      </c>
-      <c r="F8" s="13">
-        <v>20.6068</v>
-      </c>
-      <c r="G8" s="13">
-        <v>21.420770000000001</v>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.74</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20.437999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>22.073039999999999</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="4" customFormat="1">
       <c r="B9" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
-        <v>9.85</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E9" s="9">
-        <v>10.38</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F9" s="10">
-        <v>20.786200000000001</v>
+        <v>20.507999999999999</v>
       </c>
       <c r="G9" s="10">
-        <v>21.523070000000001</v>
+        <v>21.330369999999998</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10.61</v>
-      </c>
-      <c r="F10" s="7">
-        <v>20.321200000000001</v>
-      </c>
-      <c r="G10" s="7">
-        <v>21.467320000000001</v>
+      <c r="B10" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9.86</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="F10" s="13">
+        <v>20.6068</v>
+      </c>
+      <c r="G10" s="13">
+        <v>21.420770000000001</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="4" customFormat="1">
@@ -936,99 +942,99 @@
         <v>2024</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9">
-        <v>10.24</v>
+        <v>9.85</v>
       </c>
       <c r="E11" s="9">
-        <v>10.74</v>
+        <v>10.38</v>
       </c>
       <c r="F11" s="10">
-        <v>20.037800000000001</v>
+        <v>20.786200000000001</v>
       </c>
       <c r="G11" s="10">
-        <v>21.778079999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
+        <v>21.523070000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="4" customFormat="1">
       <c r="B12" s="5">
         <v>2024</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6">
-        <v>10.44</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E12" s="6">
-        <v>10.95</v>
+        <v>10.61</v>
       </c>
       <c r="F12" s="7">
-        <v>19.643999999999998</v>
+        <v>20.321200000000001</v>
       </c>
       <c r="G12" s="7">
-        <v>21.926629999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
+        <v>21.467320000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="4" customFormat="1">
       <c r="B13" s="8">
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9">
-        <v>10.76</v>
+        <v>10.24</v>
       </c>
       <c r="E13" s="9">
-        <v>11.08</v>
+        <v>10.74</v>
       </c>
       <c r="F13" s="10">
-        <v>19.653500000000001</v>
+        <v>20.037800000000001</v>
       </c>
       <c r="G13" s="10">
-        <v>21.760359999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>21.778079999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1">
       <c r="B14" s="5">
         <v>2024</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6">
-        <v>10.92</v>
+        <v>10.44</v>
       </c>
       <c r="E14" s="6">
-        <v>11.25</v>
+        <v>10.95</v>
       </c>
       <c r="F14" s="7">
-        <v>18.597000000000001</v>
+        <v>19.643999999999998</v>
       </c>
       <c r="G14" s="7">
-        <v>20.121949999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>21.926629999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1">
       <c r="B15" s="8">
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="9">
-        <v>10.97</v>
+        <v>10.76</v>
       </c>
       <c r="E15" s="9">
-        <v>11.24</v>
+        <v>11.08</v>
       </c>
       <c r="F15" s="10">
-        <v>18.247800000000002</v>
+        <v>19.653500000000001</v>
       </c>
       <c r="G15" s="10">
-        <v>19.55799</v>
+        <v>21.760359999999999</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -1036,19 +1042,19 @@
         <v>2024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>10.99</v>
+        <v>10.92</v>
       </c>
       <c r="E16" s="6">
-        <v>11.24</v>
+        <v>11.25</v>
       </c>
       <c r="F16" s="7">
-        <v>17.017700000000001</v>
+        <v>18.597000000000001</v>
       </c>
       <c r="G16" s="7">
-        <v>18.476970000000001</v>
+        <v>20.121949999999998</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1056,19 +1062,19 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>10.97</v>
       </c>
       <c r="E17" s="9">
-        <v>11.25</v>
+        <v>11.24</v>
       </c>
       <c r="F17" s="10">
-        <v>17.095800000000001</v>
+        <v>18.247800000000002</v>
       </c>
       <c r="G17" s="10">
-        <v>18.275410000000001</v>
+        <v>19.55799</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1076,19 +1082,19 @@
         <v>2024</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>11.02</v>
+        <v>10.99</v>
       </c>
       <c r="E18" s="6">
-        <v>11.44</v>
+        <v>11.24</v>
       </c>
       <c r="F18" s="7">
-        <v>16.532299999999999</v>
+        <v>17.017700000000001</v>
       </c>
       <c r="G18" s="7">
-        <v>17.881340000000002</v>
+        <v>18.476970000000001</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1096,99 +1102,99 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10.97</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11.25</v>
+      </c>
+      <c r="F19" s="10">
+        <v>17.095800000000001</v>
+      </c>
+      <c r="G19" s="10">
+        <v>18.275410000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11.02</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11.44</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16.532299999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>17.881340000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D21" s="9">
         <v>11.05</v>
-      </c>
-      <c r="E19" s="9">
-        <v>11.5</v>
-      </c>
-      <c r="F19" s="10">
-        <v>17.063300000000002</v>
-      </c>
-      <c r="G19" s="10">
-        <v>18.465900000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="12">
-        <v>11.29</v>
-      </c>
-      <c r="E20" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="F20" s="13">
-        <v>17.1633</v>
-      </c>
-      <c r="G20" s="13">
-        <v>18.64106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9">
-        <v>11.21</v>
       </c>
       <c r="E21" s="9">
         <v>11.5</v>
       </c>
       <c r="F21" s="10">
-        <v>16.919</v>
-      </c>
-      <c r="G21" s="15">
-        <v>18.692959999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="5">
+        <v>17.063300000000002</v>
+      </c>
+      <c r="G21" s="10">
+        <v>18.465900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12">
+        <v>11.29</v>
+      </c>
+      <c r="E22" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>17.1633</v>
+      </c>
+      <c r="G22" s="13">
+        <v>18.64106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10.89</v>
-      </c>
-      <c r="E22" s="6">
-        <v>11.51</v>
-      </c>
-      <c r="F22" s="7">
-        <v>17.373000000000001</v>
-      </c>
-      <c r="G22" s="7">
-        <v>18.952210000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
-        <v>2023</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9">
-        <v>11.08</v>
+        <v>11.21</v>
       </c>
       <c r="E23" s="9">
         <v>11.5</v>
       </c>
       <c r="F23" s="10">
-        <v>18.036799999999999</v>
-      </c>
-      <c r="G23" s="10">
-        <v>19.120809999999999</v>
+        <v>16.919</v>
+      </c>
+      <c r="G23" s="15">
+        <v>18.692959999999999</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1">
@@ -1196,19 +1202,19 @@
         <v>2023</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>11.08</v>
+        <v>10.89</v>
       </c>
       <c r="E24" s="6">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="F24" s="7">
-        <v>17.412700000000001</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="G24" s="7">
-        <v>18.431339999999999</v>
+        <v>18.952210000000001</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1">
@@ -1216,19 +1222,19 @@
         <v>2023</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9">
-        <v>11.16</v>
+        <v>11.08</v>
       </c>
       <c r="E25" s="9">
         <v>11.5</v>
       </c>
       <c r="F25" s="10">
-        <v>16.917000000000002</v>
+        <v>18.036799999999999</v>
       </c>
       <c r="G25" s="10">
-        <v>18.358329999999999</v>
+        <v>19.120809999999999</v>
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1">
@@ -1236,19 +1242,19 @@
         <v>2023</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6">
-        <v>11.22</v>
+        <v>11.08</v>
       </c>
       <c r="E26" s="6">
         <v>11.5</v>
       </c>
       <c r="F26" s="7">
-        <v>16.7303</v>
+        <v>17.412700000000001</v>
       </c>
       <c r="G26" s="7">
-        <v>18.446829999999999</v>
+        <v>18.431339999999999</v>
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1">
@@ -1256,7 +1262,7 @@
         <v>2023</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="9">
         <v>11.16</v>
@@ -1265,10 +1271,10 @@
         <v>11.5</v>
       </c>
       <c r="F27" s="10">
-        <v>17.1358</v>
+        <v>16.917000000000002</v>
       </c>
       <c r="G27" s="10">
-        <v>18.69773</v>
+        <v>18.358329999999999</v>
       </c>
     </row>
     <row r="28" spans="2:7" hidden="1">
@@ -1276,19 +1282,19 @@
         <v>2023</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
-        <v>11.32</v>
+        <v>11.22</v>
       </c>
       <c r="E28" s="6">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="F28" s="7">
-        <v>17.741800000000001</v>
+        <v>16.7303</v>
       </c>
       <c r="G28" s="7">
-        <v>18.913650000000001</v>
+        <v>18.446829999999999</v>
       </c>
     </row>
     <row r="29" spans="2:7" hidden="1">
@@ -1296,19 +1302,19 @@
         <v>2023</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="9">
-        <v>11.29</v>
+        <v>11.16</v>
       </c>
       <c r="E29" s="9">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="F29" s="10">
-        <v>17.997499999999999</v>
+        <v>17.1358</v>
       </c>
       <c r="G29" s="10">
-        <v>19.862939999999998</v>
+        <v>18.69773</v>
       </c>
     </row>
     <row r="30" spans="2:7" hidden="1">
@@ -1316,19 +1322,19 @@
         <v>2023</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6">
-        <v>11.23</v>
+        <v>11.32</v>
       </c>
       <c r="E30" s="6">
-        <v>11.34</v>
+        <v>11.54</v>
       </c>
       <c r="F30" s="7">
-        <v>18.041499999999999</v>
+        <v>17.741800000000001</v>
       </c>
       <c r="G30" s="7">
-        <v>19.600290000000001</v>
+        <v>18.913650000000001</v>
       </c>
     </row>
     <row r="31" spans="2:7" hidden="1">
@@ -1336,99 +1342,99 @@
         <v>2023</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="9">
+        <v>11.29</v>
+      </c>
+      <c r="E31" s="9">
+        <v>11.53</v>
+      </c>
+      <c r="F31" s="10">
+        <v>17.997499999999999</v>
+      </c>
+      <c r="G31" s="10">
+        <v>19.862939999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6">
+        <v>11.23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>11.34</v>
+      </c>
+      <c r="F32" s="7">
+        <v>18.041499999999999</v>
+      </c>
+      <c r="G32" s="7">
+        <v>19.600290000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D33" s="9">
         <v>10.92</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E33" s="9">
         <v>11.1</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F33" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G33" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="11">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="11">
         <v>2023</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D34" s="12">
         <v>10.61</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E34" s="12">
         <v>10.78</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G34" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="14">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D35" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E35" s="9">
         <v>10.53</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F35" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G35" s="10">
         <v>20.769279999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6">
-        <v>9.42</v>
-      </c>
-      <c r="E34" s="6">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7">
-        <v>19.3965</v>
-      </c>
-      <c r="G34" s="7">
-        <v>19.977429999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="9">
-        <v>8.93</v>
-      </c>
-      <c r="E35" s="9">
-        <v>9.56</v>
-      </c>
-      <c r="F35" s="10">
-        <v>19.8245</v>
-      </c>
-      <c r="G35" s="10">
-        <v>19.603459999999998</v>
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1">
@@ -1436,19 +1442,19 @@
         <v>2022</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="6">
-        <v>8.6999999999999993</v>
+        <v>9.42</v>
       </c>
       <c r="E36" s="6">
-        <v>8.89</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7">
-        <v>20.092500000000001</v>
+        <v>19.3965</v>
       </c>
       <c r="G36" s="7">
-        <v>19.686630000000001</v>
+        <v>19.977429999999998</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1">
@@ -1456,19 +1462,19 @@
         <v>2022</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" s="9">
-        <v>8.25</v>
+        <v>8.93</v>
       </c>
       <c r="E37" s="9">
-        <v>8.5</v>
+        <v>9.56</v>
       </c>
       <c r="F37" s="10">
-        <v>20.0962</v>
+        <v>19.8245</v>
       </c>
       <c r="G37" s="10">
-        <v>20.208739999999999</v>
+        <v>19.603459999999998</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -1476,19 +1482,19 @@
         <v>2022</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
-        <v>7.76</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E38" s="6">
-        <v>8.0399999999999991</v>
+        <v>8.89</v>
       </c>
       <c r="F38" s="7">
-        <v>20.348500000000001</v>
+        <v>20.092500000000001</v>
       </c>
       <c r="G38" s="7">
-        <v>20.739190000000001</v>
+        <v>19.686630000000001</v>
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1">
@@ -1496,19 +1502,19 @@
         <v>2022</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="9">
-        <v>7.31</v>
+        <v>8.25</v>
       </c>
       <c r="E39" s="9">
-        <v>7.42</v>
+        <v>8.5</v>
       </c>
       <c r="F39" s="10">
-        <v>20.133500000000002</v>
+        <v>20.0962</v>
       </c>
       <c r="G39" s="10">
-        <v>21.047560000000001</v>
+        <v>20.208739999999999</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1">
@@ -1516,19 +1522,19 @@
         <v>2022</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
-        <v>6.91</v>
+        <v>7.76</v>
       </c>
       <c r="E40" s="6">
-        <v>7.01</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="F40" s="7">
-        <v>19.693999999999999</v>
+        <v>20.348500000000001</v>
       </c>
       <c r="G40" s="7">
-        <v>21.095230000000001</v>
+        <v>20.739190000000001</v>
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1">
@@ -1536,19 +1542,19 @@
         <v>2022</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="9">
-        <v>6.56</v>
+        <v>7.31</v>
       </c>
       <c r="E41" s="9">
-        <v>6.73</v>
+        <v>7.42</v>
       </c>
       <c r="F41" s="10">
-        <v>20.372800000000002</v>
+        <v>20.133500000000002</v>
       </c>
       <c r="G41" s="10">
-        <v>21.49127</v>
+        <v>21.047560000000001</v>
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1">
@@ -1556,19 +1562,19 @@
         <v>2022</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6">
-        <v>6.31</v>
+        <v>6.91</v>
       </c>
       <c r="E42" s="6">
-        <v>6.33</v>
+        <v>7.01</v>
       </c>
       <c r="F42" s="7">
-        <v>19.911200000000001</v>
+        <v>19.693999999999999</v>
       </c>
       <c r="G42" s="7">
-        <v>22.14424</v>
+        <v>21.095230000000001</v>
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1">
@@ -1576,79 +1582,79 @@
         <v>2022</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="9">
-        <v>5.87</v>
+        <v>6.56</v>
       </c>
       <c r="E43" s="9">
-        <v>6.02</v>
+        <v>6.73</v>
       </c>
       <c r="F43" s="10">
-        <v>20.425699999999999</v>
+        <v>20.372800000000002</v>
       </c>
       <c r="G43" s="10">
-        <v>22.934999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="11">
+        <v>21.49127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="12">
-        <v>5.53</v>
-      </c>
-      <c r="E44" s="12">
-        <v>5.72</v>
-      </c>
-      <c r="F44" s="13">
-        <v>20.635200000000001</v>
-      </c>
-      <c r="G44" s="13">
-        <v>23.131029999999999</v>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6.31</v>
+      </c>
+      <c r="E44" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="F44" s="7">
+        <v>19.911200000000001</v>
+      </c>
+      <c r="G44" s="7">
+        <v>22.14424</v>
       </c>
     </row>
     <row r="45" spans="2:7" hidden="1">
       <c r="B45" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" s="9">
-        <v>5.29</v>
+        <v>5.87</v>
       </c>
       <c r="E45" s="9">
-        <v>5.44</v>
+        <v>6.02</v>
       </c>
       <c r="F45" s="10">
-        <v>20.467199999999998</v>
+        <v>20.425699999999999</v>
       </c>
       <c r="G45" s="10">
-        <v>23.276319999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5.05</v>
-      </c>
-      <c r="E46" s="6">
-        <v>5.13</v>
-      </c>
-      <c r="F46" s="7">
-        <v>21.4453</v>
-      </c>
-      <c r="G46" s="7">
-        <v>24.151700000000002</v>
+        <v>22.934999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="12">
+        <v>5.53</v>
+      </c>
+      <c r="E46" s="12">
+        <v>5.72</v>
+      </c>
+      <c r="F46" s="13">
+        <v>20.635200000000001</v>
+      </c>
+      <c r="G46" s="13">
+        <v>23.131029999999999</v>
       </c>
     </row>
     <row r="47" spans="2:7" hidden="1">
@@ -1656,19 +1662,19 @@
         <v>2021</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="9">
-        <v>4.84</v>
+        <v>5.29</v>
       </c>
       <c r="E47" s="9">
-        <v>4.9800000000000004</v>
+        <v>5.44</v>
       </c>
       <c r="F47" s="10">
-        <v>20.529699999999998</v>
+        <v>20.467199999999998</v>
       </c>
       <c r="G47" s="10">
-        <v>23.757999999999999</v>
+        <v>23.276319999999998</v>
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1">
@@ -1676,19 +1682,19 @@
         <v>2021</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="6">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="E48" s="6">
-        <v>4.75</v>
+        <v>5.13</v>
       </c>
       <c r="F48" s="7">
-        <v>20.5623</v>
+        <v>21.4453</v>
       </c>
       <c r="G48" s="7">
-        <v>23.828620000000001</v>
+        <v>24.151700000000002</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1">
@@ -1696,19 +1702,19 @@
         <v>2021</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49" s="9">
-        <v>4.46</v>
+        <v>4.84</v>
       </c>
       <c r="E49" s="9">
-        <v>4.6500000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F49" s="10">
-        <v>20.060500000000001</v>
+        <v>20.529699999999998</v>
       </c>
       <c r="G49" s="10">
-        <v>23.680420000000002</v>
+        <v>23.757999999999999</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1">
@@ -1716,19 +1722,19 @@
         <v>2021</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D50" s="6">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="E50" s="6">
-        <v>4.5199999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="F50" s="7">
-        <v>19.845500000000001</v>
+        <v>20.5623</v>
       </c>
       <c r="G50" s="7">
-        <v>23.529820000000001</v>
+        <v>23.828620000000001</v>
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1">
@@ -1736,19 +1742,19 @@
         <v>2021</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="9">
-        <v>4.0199999999999996</v>
+        <v>4.46</v>
       </c>
       <c r="E51" s="9">
-        <v>4.32</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F51" s="10">
-        <v>19.906199999999998</v>
+        <v>20.060500000000001</v>
       </c>
       <c r="G51" s="10">
-        <v>23.60079</v>
+        <v>23.680420000000002</v>
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1">
@@ -1756,19 +1762,19 @@
         <v>2021</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" s="6">
-        <v>4.0599999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="E52" s="6">
-        <v>4.29</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F52" s="7">
-        <v>19.921299999999999</v>
+        <v>19.845500000000001</v>
       </c>
       <c r="G52" s="7">
-        <v>24.352789999999999</v>
+        <v>23.529820000000001</v>
       </c>
     </row>
     <row r="53" spans="2:7" hidden="1">
@@ -1776,19 +1782,19 @@
         <v>2021</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="9">
-        <v>4.07</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E53" s="9">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="F53" s="10">
-        <v>20.182200000000002</v>
+        <v>19.906199999999998</v>
       </c>
       <c r="G53" s="10">
-        <v>24.300380000000001</v>
+        <v>23.60079</v>
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1">
@@ -1796,19 +1802,19 @@
         <v>2021</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6">
-        <v>4.05</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E54" s="6">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="F54" s="7">
-        <v>20.440000000000001</v>
+        <v>19.921299999999999</v>
       </c>
       <c r="G54" s="7">
-        <v>24.026199999999999</v>
+        <v>24.352789999999999</v>
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1">
@@ -1816,79 +1822,79 @@
         <v>2021</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="9">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="E55" s="9">
-        <v>4.3600000000000003</v>
+        <v>4.28</v>
       </c>
       <c r="F55" s="10">
-        <v>20.939</v>
+        <v>20.182200000000002</v>
       </c>
       <c r="G55" s="10">
-        <v>25.41262</v>
+        <v>24.300380000000001</v>
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="11">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="12">
-        <v>4.22</v>
-      </c>
-      <c r="E56" s="12">
-        <v>4.47</v>
-      </c>
-      <c r="F56" s="13">
-        <v>20.224799999999998</v>
-      </c>
-      <c r="G56" s="13">
-        <v>24.56504</v>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="F56" s="7">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="G56" s="7">
+        <v>24.026199999999999</v>
       </c>
     </row>
     <row r="57" spans="2:7" hidden="1">
       <c r="B57" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" s="9">
-        <v>4.2699999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="E57" s="9">
-        <v>4.49</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F57" s="10">
-        <v>19.9087</v>
+        <v>20.939</v>
       </c>
       <c r="G57" s="10">
-        <v>24.356300000000001</v>
+        <v>25.41262</v>
       </c>
     </row>
     <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="6">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="E58" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F58" s="7">
-        <v>20.139800000000001</v>
-      </c>
-      <c r="G58" s="7">
-        <v>24.094249999999999</v>
+      <c r="B58" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="12">
+        <v>4.22</v>
+      </c>
+      <c r="E58" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="F58" s="13">
+        <v>20.224799999999998</v>
+      </c>
+      <c r="G58" s="13">
+        <v>24.56504</v>
       </c>
     </row>
     <row r="59" spans="2:7" hidden="1">
@@ -1896,19 +1902,19 @@
         <v>2020</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" s="9">
-        <v>4.2</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E59" s="9">
-        <v>4.53</v>
+        <v>4.49</v>
       </c>
       <c r="F59" s="10">
-        <v>21.250800000000002</v>
+        <v>19.9087</v>
       </c>
       <c r="G59" s="10">
-        <v>24.81775</v>
+        <v>24.356300000000001</v>
       </c>
     </row>
     <row r="60" spans="2:7" hidden="1">
@@ -1916,19 +1922,19 @@
         <v>2020</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D60" s="6">
-        <v>4.38</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E60" s="6">
-        <v>4.72</v>
+        <v>4.5</v>
       </c>
       <c r="F60" s="7">
-        <v>22.143799999999999</v>
+        <v>20.139800000000001</v>
       </c>
       <c r="G60" s="7">
-        <v>25.969139999999999</v>
+        <v>24.094249999999999</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1">
@@ -1936,19 +1942,19 @@
         <v>2020</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D61" s="9">
-        <v>4.49</v>
+        <v>4.2</v>
       </c>
       <c r="E61" s="9">
-        <v>4.97</v>
+        <v>4.53</v>
       </c>
       <c r="F61" s="10">
-        <v>21.888000000000002</v>
+        <v>21.250800000000002</v>
       </c>
       <c r="G61" s="10">
-        <v>26.17914</v>
+        <v>24.81775</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1">
@@ -1956,19 +1962,19 @@
         <v>2020</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D62" s="6">
-        <v>4.82</v>
+        <v>4.38</v>
       </c>
       <c r="E62" s="6">
-        <v>5.23</v>
+        <v>4.72</v>
       </c>
       <c r="F62" s="7">
-        <v>22.2012</v>
+        <v>22.143799999999999</v>
       </c>
       <c r="G62" s="7">
-        <v>26.26069</v>
+        <v>25.969139999999999</v>
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1">
@@ -1976,19 +1982,19 @@
         <v>2020</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="9">
-        <v>5.0599999999999996</v>
+        <v>4.49</v>
       </c>
       <c r="E63" s="9">
-        <v>5.65</v>
+        <v>4.97</v>
       </c>
       <c r="F63" s="10">
-        <v>23.089300000000001</v>
+        <v>21.888000000000002</v>
       </c>
       <c r="G63" s="10">
-        <v>25.925820000000002</v>
+        <v>26.17914</v>
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1">
@@ -1996,19 +2002,19 @@
         <v>2020</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="6">
-        <v>5.47</v>
+        <v>4.82</v>
       </c>
       <c r="E64" s="6">
-        <v>6</v>
+        <v>5.23</v>
       </c>
       <c r="F64" s="7">
-        <v>22.177800000000001</v>
+        <v>22.2012</v>
       </c>
       <c r="G64" s="7">
-        <v>24.67502</v>
+        <v>26.26069</v>
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1">
@@ -2016,19 +2022,19 @@
         <v>2020</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" s="9">
-        <v>6.09</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E65" s="9">
-        <v>6.54</v>
+        <v>5.65</v>
       </c>
       <c r="F65" s="10">
-        <v>23.9283</v>
+        <v>23.089300000000001</v>
       </c>
       <c r="G65" s="10">
-        <v>26.1967</v>
+        <v>25.925820000000002</v>
       </c>
     </row>
     <row r="66" spans="2:7" hidden="1">
@@ -2036,19 +2042,19 @@
         <v>2020</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6">
-        <v>6.81</v>
+        <v>5.47</v>
       </c>
       <c r="E66" s="6">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="F66" s="7">
-        <v>23.4847</v>
+        <v>22.177800000000001</v>
       </c>
       <c r="G66" s="7">
-        <v>25.767410000000002</v>
+        <v>24.67502</v>
       </c>
     </row>
     <row r="67" spans="2:7" hidden="1">
@@ -2056,79 +2062,79 @@
         <v>2020</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="9">
-        <v>6.96</v>
+        <v>6.09</v>
       </c>
       <c r="E67" s="9">
-        <v>7.39</v>
+        <v>6.54</v>
       </c>
       <c r="F67" s="10">
-        <v>19.776</v>
+        <v>23.9283</v>
       </c>
       <c r="G67" s="10">
-        <v>21.720970000000001</v>
+        <v>26.1967</v>
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="11">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="12">
-        <v>7.12</v>
-      </c>
-      <c r="E68" s="12">
-        <v>7.53</v>
-      </c>
-      <c r="F68" s="13">
-        <v>18.908200000000001</v>
-      </c>
-      <c r="G68" s="13">
-        <v>20.9465</v>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6.81</v>
+      </c>
+      <c r="E68" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="F68" s="7">
+        <v>23.4847</v>
+      </c>
+      <c r="G68" s="7">
+        <v>25.767410000000002</v>
       </c>
     </row>
     <row r="69" spans="2:7" hidden="1">
       <c r="B69" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="9">
+        <v>6.96</v>
+      </c>
+      <c r="E69" s="9">
+        <v>7.39</v>
+      </c>
+      <c r="F69" s="10">
+        <v>19.776</v>
+      </c>
+      <c r="G69" s="10">
+        <v>21.720970000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="12">
         <v>7.12</v>
       </c>
-      <c r="E69" s="9">
-        <v>7.7</v>
-      </c>
-      <c r="F69" s="10">
-        <v>18.8642</v>
-      </c>
-      <c r="G69" s="10">
-        <v>21.175059999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="E70" s="6">
-        <v>7.87</v>
-      </c>
-      <c r="F70" s="7">
-        <v>19.5352</v>
-      </c>
-      <c r="G70" s="7">
-        <v>21.538530000000002</v>
+      <c r="E70" s="12">
+        <v>7.53</v>
+      </c>
+      <c r="F70" s="13">
+        <v>18.908200000000001</v>
+      </c>
+      <c r="G70" s="13">
+        <v>20.9465</v>
       </c>
     </row>
     <row r="71" spans="2:7" hidden="1">
@@ -2136,19 +2142,19 @@
         <v>2019</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" s="9">
-        <v>7.66</v>
+        <v>7.12</v>
       </c>
       <c r="E71" s="9">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="F71" s="10">
-        <v>19.194800000000001</v>
+        <v>18.8642</v>
       </c>
       <c r="G71" s="10">
-        <v>21.383970000000001</v>
+        <v>21.175059999999998</v>
       </c>
     </row>
     <row r="72" spans="2:7" hidden="1">
@@ -2156,19 +2162,19 @@
         <v>2019</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6">
-        <v>7.72</v>
+        <v>7.47</v>
       </c>
       <c r="E72" s="6">
-        <v>8.1999999999999993</v>
+        <v>7.87</v>
       </c>
       <c r="F72" s="7">
-        <v>19.734500000000001</v>
+        <v>19.5352</v>
       </c>
       <c r="G72" s="7">
-        <v>21.515540000000001</v>
+        <v>21.538530000000002</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1">
@@ -2176,19 +2182,19 @@
         <v>2019</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D73" s="9">
-        <v>8.01</v>
+        <v>7.66</v>
       </c>
       <c r="E73" s="9">
-        <v>8.3699999999999992</v>
+        <v>8</v>
       </c>
       <c r="F73" s="10">
-        <v>20.069600000000001</v>
+        <v>19.194800000000001</v>
       </c>
       <c r="G73" s="10">
-        <v>22.107669999999999</v>
+        <v>21.383970000000001</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1">
@@ -2196,19 +2202,19 @@
         <v>2019</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6">
-        <v>8.14</v>
+        <v>7.72</v>
       </c>
       <c r="E74" s="6">
-        <v>8.48</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F74" s="7">
-        <v>18.992899999999999</v>
+        <v>19.734500000000001</v>
       </c>
       <c r="G74" s="7">
-        <v>21.148589999999999</v>
+        <v>21.515540000000001</v>
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1">
@@ -2216,19 +2222,19 @@
         <v>2019</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="9">
-        <v>8.25</v>
+        <v>8.01</v>
       </c>
       <c r="E75" s="9">
-        <v>8.51</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F75" s="10">
-        <v>19.2087</v>
+        <v>20.069600000000001</v>
       </c>
       <c r="G75" s="10">
-        <v>21.87199</v>
+        <v>22.107669999999999</v>
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1">
@@ -2236,19 +2242,19 @@
         <v>2019</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" s="6">
-        <v>8.07</v>
+        <v>8.14</v>
       </c>
       <c r="E76" s="6">
-        <v>8.51</v>
+        <v>8.48</v>
       </c>
       <c r="F76" s="7">
-        <v>19.642600000000002</v>
+        <v>18.992899999999999</v>
       </c>
       <c r="G76" s="7">
-        <v>21.893640000000001</v>
+        <v>21.148589999999999</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1">
@@ -2256,19 +2262,19 @@
         <v>2019</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" s="9">
-        <v>7.78</v>
+        <v>8.25</v>
       </c>
       <c r="E77" s="9">
-        <v>8.5</v>
+        <v>8.51</v>
       </c>
       <c r="F77" s="10">
-        <v>19.009899999999998</v>
+        <v>19.2087</v>
       </c>
       <c r="G77" s="10">
-        <v>21.30725</v>
+        <v>21.87199</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1">
@@ -2276,19 +2282,19 @@
         <v>2019</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="6">
-        <v>8.02</v>
+        <v>8.07</v>
       </c>
       <c r="E78" s="6">
-        <v>8.52</v>
+        <v>8.51</v>
       </c>
       <c r="F78" s="7">
-        <v>19.3779</v>
+        <v>19.642600000000002</v>
       </c>
       <c r="G78" s="7">
-        <v>21.7546</v>
+        <v>21.893640000000001</v>
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1">
@@ -2296,79 +2302,79 @@
         <v>2019</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="9">
-        <v>7.93</v>
+        <v>7.78</v>
       </c>
       <c r="E79" s="9">
-        <v>8.56</v>
+        <v>8.5</v>
       </c>
       <c r="F79" s="10">
-        <v>19.2607</v>
+        <v>19.009899999999998</v>
       </c>
       <c r="G79" s="10">
-        <v>21.929269999999999</v>
+        <v>21.30725</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="11">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="12">
-        <v>7.95</v>
-      </c>
-      <c r="E80" s="12">
-        <v>8.59</v>
-      </c>
-      <c r="F80" s="13">
-        <v>19.038799999999998</v>
-      </c>
-      <c r="G80" s="13">
-        <v>21.848929999999999</v>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="6">
+        <v>8.02</v>
+      </c>
+      <c r="E80" s="6">
+        <v>8.52</v>
+      </c>
+      <c r="F80" s="7">
+        <v>19.3779</v>
+      </c>
+      <c r="G80" s="7">
+        <v>21.7546</v>
       </c>
     </row>
     <row r="81" spans="2:10" hidden="1">
       <c r="B81" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="9">
-        <v>8.02</v>
+        <v>7.93</v>
       </c>
       <c r="E81" s="9">
-        <v>8.41</v>
+        <v>8.56</v>
       </c>
       <c r="F81" s="10">
-        <v>19.651199999999999</v>
+        <v>19.2607</v>
       </c>
       <c r="G81" s="10">
-        <v>22.469180000000001</v>
+        <v>21.929269999999999</v>
       </c>
     </row>
     <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="6">
-        <v>7.83</v>
-      </c>
-      <c r="E82" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="F82" s="7">
-        <v>20.345500000000001</v>
-      </c>
-      <c r="G82" s="7">
-        <v>23.038229999999999</v>
+      <c r="B82" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="12">
+        <v>7.95</v>
+      </c>
+      <c r="E82" s="12">
+        <v>8.59</v>
+      </c>
+      <c r="F82" s="13">
+        <v>19.038799999999998</v>
+      </c>
+      <c r="G82" s="13">
+        <v>21.848929999999999</v>
       </c>
     </row>
     <row r="83" spans="2:10" hidden="1">
@@ -2376,19 +2382,19 @@
         <v>2018</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" s="9">
-        <v>7.69</v>
+        <v>8.02</v>
       </c>
       <c r="E83" s="9">
-        <v>8.1199999999999992</v>
+        <v>8.41</v>
       </c>
       <c r="F83" s="10">
-        <v>20.317699999999999</v>
+        <v>19.651199999999999</v>
       </c>
       <c r="G83" s="10">
-        <v>22.997599999999998</v>
+        <v>22.469180000000001</v>
       </c>
     </row>
     <row r="84" spans="2:10" hidden="1">
@@ -2396,19 +2402,19 @@
         <v>2018</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="6">
-        <v>7.69</v>
+        <v>7.83</v>
       </c>
       <c r="E84" s="6">
-        <v>8.11</v>
+        <v>8.25</v>
       </c>
       <c r="F84" s="7">
-        <v>18.723099999999999</v>
+        <v>20.345500000000001</v>
       </c>
       <c r="G84" s="7">
-        <v>21.74314</v>
+        <v>23.038229999999999</v>
       </c>
     </row>
     <row r="85" spans="2:10" hidden="1">
@@ -2416,19 +2422,19 @@
         <v>2018</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D85" s="9">
-        <v>7.73</v>
+        <v>7.69</v>
       </c>
       <c r="E85" s="9">
-        <v>8.11</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F85" s="10">
-        <v>19.179200000000002</v>
+        <v>20.317699999999999</v>
       </c>
       <c r="G85" s="10">
-        <v>22.317879999999999</v>
+        <v>22.997599999999998</v>
       </c>
     </row>
     <row r="86" spans="2:10" hidden="1">
@@ -2436,19 +2442,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D86" s="6">
-        <v>7.73</v>
+        <v>7.69</v>
       </c>
       <c r="E86" s="6">
-        <v>8.1</v>
+        <v>8.11</v>
       </c>
       <c r="F86" s="7">
-        <v>18.645700000000001</v>
+        <v>18.723099999999999</v>
       </c>
       <c r="G86" s="7">
-        <v>21.818269999999998</v>
+        <v>21.74314</v>
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1">
@@ -2456,19 +2462,19 @@
         <v>2018</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D87" s="9">
-        <v>7.64</v>
+        <v>7.73</v>
       </c>
       <c r="E87" s="9">
-        <v>7.93</v>
+        <v>8.11</v>
       </c>
       <c r="F87" s="10">
-        <v>19.691199999999998</v>
+        <v>19.179200000000002</v>
       </c>
       <c r="G87" s="10">
-        <v>22.988489999999999</v>
+        <v>22.317879999999999</v>
       </c>
     </row>
     <row r="88" spans="2:10" hidden="1">
@@ -2476,19 +2482,19 @@
         <v>2018</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="6">
-        <v>7.51</v>
+        <v>7.73</v>
       </c>
       <c r="E88" s="6">
-        <v>7.85</v>
+        <v>8.1</v>
       </c>
       <c r="F88" s="7">
-        <v>19.975899999999999</v>
+        <v>18.645700000000001</v>
       </c>
       <c r="G88" s="7">
-        <v>23.31887</v>
+        <v>21.818269999999998</v>
       </c>
     </row>
     <row r="89" spans="2:10" hidden="1">
@@ -2496,46 +2502,39 @@
         <v>2018</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" s="9">
-        <v>7.46</v>
+        <v>7.64</v>
       </c>
       <c r="E89" s="9">
-        <v>7.84</v>
+        <v>7.93</v>
       </c>
       <c r="F89" s="10">
-        <v>18.787800000000001</v>
+        <v>19.691199999999998</v>
       </c>
       <c r="G89" s="10">
-        <v>22.6966</v>
-      </c>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+        <v>22.988489999999999</v>
+      </c>
     </row>
     <row r="90" spans="2:10" hidden="1">
       <c r="B90" s="5">
         <v>2018</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="6">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
       <c r="E90" s="6">
-        <v>7.78</v>
+        <v>7.85</v>
       </c>
       <c r="F90" s="7">
-        <v>18.270900000000001</v>
+        <v>19.975899999999999</v>
       </c>
       <c r="G90" s="7">
-        <v>22.56456</v>
-      </c>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="3" t="s">
-        <v>5</v>
+        <v>23.31887</v>
       </c>
     </row>
     <row r="91" spans="2:10" hidden="1">
@@ -2543,19 +2542,19 @@
         <v>2018</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" s="9">
-        <v>7.4</v>
+        <v>7.46</v>
       </c>
       <c r="E91" s="9">
-        <v>7.78</v>
+        <v>7.84</v>
       </c>
       <c r="F91" s="10">
-        <v>18.833100000000002</v>
+        <v>18.787800000000001</v>
       </c>
       <c r="G91" s="10">
-        <v>22.973559999999999</v>
+        <v>22.6966</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
@@ -2564,20 +2563,20 @@
       <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>17</v>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D92" s="6">
-        <v>7.25</v>
+        <v>7.47</v>
       </c>
       <c r="E92" s="6">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="F92" s="7">
-        <v>18.6069</v>
+        <v>18.270900000000001</v>
       </c>
       <c r="G92" s="7">
-        <v>23.18234</v>
+        <v>22.56456</v>
       </c>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
@@ -2585,38 +2584,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E93" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F93" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G93" s="10">
+        <v>22.973559999999999</v>
+      </c>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="2:10" hidden="1">
+      <c r="B94" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E94" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="F94" s="7">
+        <v>18.6069</v>
+      </c>
+      <c r="G94" s="7">
+        <v>23.18234</v>
+      </c>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="3" t="s">
-        <v>24</v>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="16"/>
@@ -2626,16 +2653,35 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A15B44-0CCA-4BA8-950B-D622949FE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2423CE29-493A-42C3-B70E-BD52A3EF6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G94" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G95" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -741,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O100"/>
+  <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -818,1832 +818,1842 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.67</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="F5" s="7">
+        <v>18.796299999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>21.514240000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>8.09</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>8.74</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>18.833200000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>22.098880000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="5">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="5">
         <v>2025</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>8.31</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>9.0500000000000007</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>19.3858</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>22.002880000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>8.81</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>19.609500000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>22.281289999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="5">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>9.1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>9.74</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>20.437999999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>22.073039999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>20.507999999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>21.330369999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="11">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="11">
         <v>2025</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>9.86</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>10.28</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>20.6068</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>21.420770000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="4" customFormat="1">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15" s="4" customFormat="1">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>9.85</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>10.38</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>20.786200000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>21.523070000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1">
-      <c r="B12" s="5">
+    <row r="13" spans="2:15" s="4" customFormat="1">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>10.61</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>20.321200000000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="4" customFormat="1">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15" s="4" customFormat="1">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>10.24</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>10.74</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>20.037800000000001</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="5">
+    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>10.44</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>10.95</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>19.643999999999998</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>10.76</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>11.08</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>19.653500000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="5">
+    <row r="17" spans="2:7">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>10.92</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>11.25</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>18.597000000000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>10.97</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>11.24</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>18.247800000000002</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="5">
+    <row r="19" spans="2:7">
+      <c r="B19" s="5">
         <v>2024</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>10.99</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>11.24</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>17.017700000000001</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>10.97</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>11.25</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>17.095800000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="5">
+    <row r="21" spans="2:7">
+      <c r="B21" s="5">
         <v>2024</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>11.02</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>11.44</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>16.532299999999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>11.05</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>11.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>17.063300000000002</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="11">
+    <row r="23" spans="2:7">
+      <c r="B23" s="11">
         <v>2024</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>11.29</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>11.5</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>17.1633</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="14">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>11.21</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>11.5</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>16.919</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="15">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>10.89</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>11.51</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>17.373000000000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>11.08</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>11.5</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>18.036799999999999</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>11.08</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>11.5</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>17.412700000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>11.16</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>11.5</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>16.917000000000002</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>11.22</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>11.5</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>16.7303</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>11.16</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>11.5</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>17.1358</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="5">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="5">
         <v>2023</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>11.32</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>11.54</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>17.741800000000001</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>11.29</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>11.53</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>17.997499999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2023</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>11.23</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>11.34</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>18.041499999999999</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>10.92</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>11.1</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="11">
         <v>2023</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>10.61</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>10.78</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>10.53</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>9.42</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>10</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>19.3965</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>8.93</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>9.56</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>19.8245</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>8.89</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>20.092500000000001</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="7">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>8.25</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>8.5</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>20.0962</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>7.76</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>20.348500000000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>7.31</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>7.42</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>20.133500000000002</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="5">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="5">
         <v>2022</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>6.91</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>7.01</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>19.693999999999999</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>6.56</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>6.73</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>20.372800000000002</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2022</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>6.31</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>6.33</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>19.911200000000001</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>5.87</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>6.02</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>20.425699999999999</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B46" s="11">
+    <row r="47" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="11">
         <v>2022</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>5.53</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>5.72</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>5.29</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>5.44</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>20.467199999999998</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>5.05</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>5.13</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>21.4453</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>4.84</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>20.529699999999998</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>4.55</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>4.75</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>20.5623</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="7">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>4.46</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>20.060500000000001</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>4.32</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>19.845500000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>4.32</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>19.906199999999998</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="5">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="5">
         <v>2021</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>4.29</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>19.921299999999999</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>4.07</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>4.28</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>20.182200000000002</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2021</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>4.05</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>4.28</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>4.12</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>20.939</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="11">
         <v>2021</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>4.22</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>4.47</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>4.49</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>19.9087</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>4.5</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>20.139800000000001</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>4.2</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>4.53</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>21.250800000000002</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>4.38</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>4.72</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>22.143799999999999</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="7">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>4.49</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>4.97</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>21.888000000000002</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>4.82</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>5.23</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>22.2012</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>5.65</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>23.089300000000001</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="5">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="5">
         <v>2020</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>5.47</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>6</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>22.177800000000001</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>6.09</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>6.54</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>23.9283</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2020</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>6.81</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>7.1</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>23.4847</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>6.96</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>7.39</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>19.776</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="11">
         <v>2020</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>7.12</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>7.53</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>18.908200000000001</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>7.12</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>7.7</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>18.8642</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>7.47</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>7.87</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>19.5352</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>7.66</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>8</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>19.194800000000001</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>7.72</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>19.734500000000001</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>8.01</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>20.069600000000001</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>8.14</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>8.48</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>18.992899999999999</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>8.25</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>8.51</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>19.2087</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="5">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="5">
         <v>2019</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>8.07</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>8.51</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>19.642600000000002</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>7.78</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>8.5</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>19.009899999999998</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>8.02</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>8.52</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>19.3779</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>7.93</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>8.56</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>19.2607</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="11">
         <v>2019</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>7.95</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>8.59</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>8.02</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>8.41</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>19.651199999999999</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>7.83</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>8.25</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>20.345500000000001</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>7.69</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>20.317699999999999</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>7.69</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>8.11</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>18.723099999999999</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="7">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>7.73</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>8.11</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>19.179200000000002</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="5">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <v>7.73</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>8.1</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F89" s="7">
         <v>18.645700000000001</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G89" s="7">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>7.64</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>7.93</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>19.691199999999998</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <v>7.51</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>7.85</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F91" s="7">
         <v>19.975899999999999</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G91" s="7">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="8">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>7.46</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>7.84</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>18.787800000000001</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>22.6966</v>
-      </c>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="2:10" hidden="1">
-      <c r="B92" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="E92" s="6">
-        <v>7.78</v>
-      </c>
-      <c r="F92" s="7">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G92" s="7">
-        <v>22.56456</v>
       </c>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="93" spans="2:10" hidden="1">
-      <c r="B93" s="8">
+      <c r="B93" s="5">
         <v>2018</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E93" s="9">
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="6">
+        <v>7.47</v>
+      </c>
+      <c r="E93" s="6">
         <v>7.78</v>
       </c>
-      <c r="F93" s="10">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G93" s="10">
-        <v>22.973559999999999</v>
+      <c r="F93" s="7">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G93" s="7">
+        <v>22.56456</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
+      <c r="J93" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="2:10" hidden="1">
-      <c r="B94" s="5">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="E94" s="6">
-        <v>7.64</v>
-      </c>
-      <c r="F94" s="7">
-        <v>18.6069</v>
-      </c>
-      <c r="G94" s="7">
-        <v>23.18234</v>
+      <c r="C94" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E94" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F94" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G94" s="10">
+        <v>22.973559999999999</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
-      <c r="J94" s="3" t="s">
+    </row>
+    <row r="95" spans="2:10" hidden="1">
+      <c r="B95" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E95" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="F95" s="7">
+        <v>18.6069</v>
+      </c>
+      <c r="G95" s="7">
+        <v>23.18234</v>
+      </c>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="16"/>
@@ -2653,35 +2663,45 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="2:7">
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasas_interes_cambio.xlsx
+++ b/Tasas_interes_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2423CE29-493A-42C3-B70E-BD52A3EF6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E74828-6AA2-4F03-B48F-C70094991D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_2 y 3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t xml:space="preserve"> CETES 28 días</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">           Para el tipo de Cambio Peso/ dólar, el Valor determinado por el Banco de México, con base en un promedio de cotizaciones del mercado de cambios al mayoreo para operaciones liquidables.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G95" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}" name="Tabla1" displayName="Tabla1" ref="B4:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G96" xr:uid="{D0055C84-2681-47A6-8859-BEC56569F433}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -741,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O101"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -818,1852 +818,1862 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7.39</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8.09</v>
+      </c>
+      <c r="F5" s="10">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="G5" s="10">
+        <v>21.811620000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>7.67</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>8.26</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <v>18.796299999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>21.514240000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>8.09</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>8.74</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>18.833200000000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>22.098880000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="5">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>8.31</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>9.0500000000000007</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>19.3858</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>22.002880000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>8.81</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>19.609500000000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>22.281289999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2025</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>9.1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>9.74</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>20.437999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>22.073039999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="8">
         <v>2025</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>20.507999999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>21.330369999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="4" customFormat="1">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" s="4" customFormat="1">
+      <c r="B12" s="11">
         <v>2025</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>9.86</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>10.28</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>20.6068</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>21.420770000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" s="4" customFormat="1">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>9.85</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>10.38</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>20.786200000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>21.523070000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="4" customFormat="1">
-      <c r="B13" s="5">
+    <row r="14" spans="2:15" s="4" customFormat="1">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>10.61</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>20.321200000000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>21.467320000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" s="4" customFormat="1">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15" s="4" customFormat="1">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>10.24</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>10.74</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>20.037800000000001</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>21.778079999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="5">
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>10.44</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>10.95</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>19.643999999999998</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>21.926629999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7" ht="18" customHeight="1">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>10.76</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>11.08</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>19.653500000000001</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>21.760359999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5">
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>10.92</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>11.25</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>18.597000000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>20.121949999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>10.97</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>11.24</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>18.247800000000002</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>19.55799</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="5">
+    <row r="20" spans="2:7">
+      <c r="B20" s="5">
         <v>2024</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>10.99</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>11.24</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>17.017700000000001</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>18.476970000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>10.97</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>11.25</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>17.095800000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>18.275410000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="5">
+    <row r="22" spans="2:7">
+      <c r="B22" s="5">
         <v>2024</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>11.02</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>11.44</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>16.532299999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>17.881340000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7">
+      <c r="B23" s="8">
         <v>2024</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>11.05</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>11.5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>17.063300000000002</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>18.465900000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7">
+      <c r="B24" s="11">
         <v>2024</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>11.29</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>11.5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>17.1633</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>18.64106</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>11.21</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>11.5</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>16.919</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="15">
         <v>18.692959999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>10.89</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>11.51</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>17.373000000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>18.952210000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>11.08</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>11.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>18.036799999999999</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>19.120809999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>11.08</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>11.5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>17.412700000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>18.431339999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>11.16</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>11.5</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>16.917000000000002</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>18.358329999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>11.22</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>11.5</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>16.7303</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>18.446829999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>11.16</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>11.5</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>17.1358</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>18.69773</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="5">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2023</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>11.32</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>11.54</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>17.741800000000001</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>18.913650000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>11.29</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>11.53</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>17.997499999999999</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>19.862939999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2023</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>11.23</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>11.34</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>18.041499999999999</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="8">
         <v>2023</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>10.92</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>11.1</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>18.344799999999999</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>19.455580000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="11">
         <v>2023</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>10.61</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>10.78</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>18.793700000000001</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>20.409020000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>10.53</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>19.471499999999999</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>20.769279999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>9.42</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>10</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>19.3965</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>19.977429999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>8.93</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>9.56</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>19.8245</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>19.603459999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>8.89</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>20.092500000000001</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="7">
         <v>19.686630000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>8.25</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>8.5</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>20.0962</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>20.208739999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>7.76</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>20.348500000000001</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="7">
         <v>20.739190000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>7.31</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>7.42</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>20.133500000000002</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>21.047560000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="5">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>6.91</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>7.01</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>19.693999999999999</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="7">
         <v>21.095230000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>6.56</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>6.73</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>20.372800000000002</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>21.49127</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2022</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>6.31</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>6.33</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>19.911200000000001</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G46" s="7">
         <v>22.14424</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="8">
         <v>2022</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>5.87</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>6.02</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>20.425699999999999</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>22.934999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="11">
         <v>2022</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>5.53</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>5.72</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>20.635200000000001</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>23.131029999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>5.29</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>5.44</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>20.467199999999998</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>23.276319999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>5.05</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>5.13</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>21.4453</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>24.151700000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>4.84</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>20.529699999999998</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>23.757999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>4.55</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>4.75</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="7">
         <v>20.5623</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G52" s="7">
         <v>23.828620000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>4.46</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>20.060500000000001</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>23.680420000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>4.32</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>19.845500000000001</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="7">
         <v>23.529820000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>4.32</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>19.906199999999998</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>23.60079</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="5">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>4.29</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>19.921299999999999</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G56" s="7">
         <v>24.352789999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>4.07</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>4.28</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>20.182200000000002</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>24.300380000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2021</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>4.05</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>4.28</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="7">
         <v>24.026199999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="8">
         <v>2021</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>4.12</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>20.939</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>25.41262</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="11">
         <v>2021</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>4.22</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>4.47</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>20.224799999999998</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>24.56504</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>4.49</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>19.9087</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>24.356300000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>4.5</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>20.139800000000001</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>24.094249999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>4.2</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>4.53</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>21.250800000000002</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>24.81775</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>4.38</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>4.72</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>22.143799999999999</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G64" s="7">
         <v>25.969139999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>4.49</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>4.97</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>21.888000000000002</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>26.17914</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>4.82</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>5.23</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>22.2012</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G66" s="7">
         <v>26.26069</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>5.65</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>23.089300000000001</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>25.925820000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="5">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>5.47</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>6</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>22.177800000000001</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G68" s="7">
         <v>24.67502</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>6.09</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>6.54</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>23.9283</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>26.1967</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2020</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>6.81</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>7.1</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>23.4847</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="7">
         <v>25.767410000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="8">
         <v>2020</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>6.96</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>7.39</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>19.776</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>21.720970000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="11">
         <v>2020</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>7.12</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>7.53</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>18.908200000000001</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>20.9465</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>7.12</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>7.7</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>18.8642</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>21.175059999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>7.47</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>7.87</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>19.5352</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <v>21.538530000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>7.66</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>8</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>19.194800000000001</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>21.383970000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>7.72</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>19.734500000000001</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G76" s="7">
         <v>21.515540000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>8.01</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>8.3699999999999992</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>20.069600000000001</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>22.107669999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>8.14</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>8.48</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>18.992899999999999</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G78" s="7">
         <v>21.148589999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>8.25</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>8.51</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>19.2087</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>21.87199</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="5">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <v>8.07</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>8.51</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>19.642600000000002</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G80" s="7">
         <v>21.893640000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>7.78</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>8.5</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>19.009899999999998</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>21.30725</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2019</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>8.02</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>8.52</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>19.3779</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="7">
         <v>21.7546</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="8">
         <v>2019</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>7.93</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>8.56</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>19.2607</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>21.929269999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="11">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="11">
         <v>2019</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>7.95</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>8.59</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>19.038799999999998</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>21.848929999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>8.02</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>8.41</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>19.651199999999999</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>22.469180000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>7.83</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>8.25</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>20.345500000000001</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>23.038229999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>7.69</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>20.317699999999999</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>22.997599999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>7.69</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>8.11</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="7">
         <v>18.723099999999999</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G88" s="7">
         <v>21.74314</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>7.73</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>8.11</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>19.179200000000002</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>22.317879999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="5">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>7.73</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>8.1</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F90" s="7">
         <v>18.645700000000001</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G90" s="7">
         <v>21.818269999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>7.64</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>7.93</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>19.691199999999998</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>22.988489999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <v>7.51</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>7.85</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F92" s="7">
         <v>19.975899999999999</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G92" s="7">
         <v>23.31887</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1">
-      <c r="B92" s="8">
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>7.46</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>7.84</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F93" s="10">
         <v>18.787800000000001</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G93" s="10">
         <v>22.6966</v>
-      </c>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="2:10" hidden="1">
-      <c r="B93" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="E93" s="6">
-        <v>7.78</v>
-      </c>
-      <c r="F93" s="7">
-        <v>18.270900000000001</v>
-      </c>
-      <c r="G93" s="7">
-        <v>22.56456</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="94" spans="2:10" hidden="1">
-      <c r="B94" s="8">
+      <c r="B94" s="5">
         <v>2018</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E94" s="9">
+      <c r="C94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="6">
+        <v>7.47</v>
+      </c>
+      <c r="E94" s="6">
         <v>7.78</v>
       </c>
-      <c r="F94" s="10">
-        <v>18.833100000000002</v>
-      </c>
-      <c r="G94" s="10">
-        <v>22.973559999999999</v>
+      <c r="F94" s="7">
+        <v>18.270900000000001</v>
+      </c>
+      <c r="G94" s="7">
+        <v>22.56456</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="2:10" hidden="1">
-      <c r="B95" s="5">
+      <c r="B95" s="8">
         <v>2018</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="E95" s="6">
-        <v>7.64</v>
-      </c>
-      <c r="F95" s="7">
-        <v>18.6069</v>
-      </c>
-      <c r="G95" s="7">
-        <v>23.18234</v>
+      <c r="C95" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E95" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="F95" s="10">
+        <v>18.833100000000002</v>
+      </c>
+      <c r="G95" s="10">
+        <v>22.973559999999999</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="3" t="s">
+    </row>
+    <row r="96" spans="2:10" hidden="1">
+      <c r="B96" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E96" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="F96" s="7">
+        <v>18.6069</v>
+      </c>
+      <c r="G96" s="7">
+        <v>23.18234</v>
+      </c>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="16"/>
@@ -2673,35 +2683,45 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-    </row>
-    <row r="101" spans="2:7">
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
